--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR19b\Demos\sscMbody\Contact_Forces\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64739FF9-10ED-451D-8866-FCDB36E2DAAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFFB74-F731-4A6E-8239-CF5B7E594D3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13020" tabRatio="820" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="820" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -25,12 +25,14 @@
     <sheet name="R19a_v4p1" sheetId="28" r:id="rId10"/>
     <sheet name="Delta17a" sheetId="20" r:id="rId11"/>
     <sheet name="R19b_bash_5p0" sheetId="29" r:id="rId12"/>
+    <sheet name="R20a_5p0" sheetId="30" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -297,6 +299,12 @@
   <si>
     <t>CFL v5.0</t>
   </si>
+  <si>
+    <t>9.8.0.1323502 (R2020a)</t>
+  </si>
+  <si>
+    <t>11-Mar-2020 00:38:31</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -499,6 +507,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6727,11 +6742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960E93D1-1549-4CDE-AC58-5E46C49D0674}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8333,22 +8348,22 @@
       <c r="E47" s="12">
         <v>8.4619999999999997</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="3">
         <v>9437</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="12">
         <v>12.635</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="3">
         <v>5565</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="12">
         <v>6.4020000000000001</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="3">
         <v>9610</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="12">
         <v>13.441000000000001</v>
       </c>
     </row>
@@ -8633,37 +8648,1994 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>27.71</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>8945</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="12">
         <v>20.495999999999999</v>
       </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D5269-33C7-42F5-B761-518CF04E64EE}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2401</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2401</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H4" s="28">
+        <v>2401</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J4" s="28">
+        <v>2401</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>669</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>935</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="3">
+        <v>718</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>298</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="3">
+        <v>317</v>
+      </c>
+      <c r="I6" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>397</v>
+      </c>
+      <c r="K6" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3765</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4749</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5071</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6035</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4.4429999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2052</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2629</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2985</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>620</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>585</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>747</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.182</v>
+      </c>
+      <c r="J9" s="3">
+        <v>487</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>210</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>213</v>
+      </c>
+      <c r="G10" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>222</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225</v>
+      </c>
+      <c r="K10" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9335</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18756</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11535</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20609</v>
+      </c>
+      <c r="K11" s="12">
+        <v>7.9969999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.255</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>721</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>858</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>779</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.155</v>
+      </c>
+      <c r="J15" s="3">
+        <v>943</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1402</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1420</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.152</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1478</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6557</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6736</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5880</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6338</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1.9470000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>290</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>313</v>
+      </c>
+      <c r="G18" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>313</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="J18" s="3">
+        <v>331</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3464</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3689</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3590</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3778</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7298</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7160</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>98695</v>
+      </c>
+      <c r="I20" s="12">
+        <v>11.929</v>
+      </c>
+      <c r="J20" s="3">
+        <v>99776</v>
+      </c>
+      <c r="K20" s="12">
+        <v>14.851000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3633</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4482</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4048</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3909</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.7719999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3195</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3095</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3743</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.601</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3615</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>252</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.308</v>
+      </c>
+      <c r="F24" s="3">
+        <v>252</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="3">
+        <v>252</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="J24" s="3">
+        <v>252</v>
+      </c>
+      <c r="K24" s="12">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4705</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5132</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4543</v>
+      </c>
+      <c r="I25" s="12">
+        <v>6.306</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5114</v>
+      </c>
+      <c r="K25" s="12">
+        <v>7.5110000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13076</v>
+      </c>
+      <c r="E26" s="12">
+        <v>9.1069999999999993</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14827</v>
+      </c>
+      <c r="G26" s="12">
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19533</v>
+      </c>
+      <c r="I26" s="12">
+        <v>9.9429999999999996</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21576</v>
+      </c>
+      <c r="K26" s="12">
+        <v>11.760999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4048</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3527</v>
+      </c>
+      <c r="I27" s="12">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4177</v>
+      </c>
+      <c r="K27" s="12">
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.223</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>848</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.224</v>
+      </c>
+      <c r="H29" s="3">
+        <v>792</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>896</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="12">
+        <v>20.169</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12222</v>
+      </c>
+      <c r="G30" s="12">
+        <v>38.152000000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="12">
+        <v>26.99</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13420</v>
+      </c>
+      <c r="K30" s="12">
+        <v>41.851999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>879</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F31" s="3">
+        <v>912</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H31" s="3">
+        <v>861</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.379</v>
+      </c>
+      <c r="J31" s="3">
+        <v>961</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6120</v>
+      </c>
+      <c r="G32" s="12">
+        <v>15.861000000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6033</v>
+      </c>
+      <c r="K32" s="12">
+        <v>14.212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2712</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4053</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1.909</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3098</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1.389</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4448</v>
+      </c>
+      <c r="K33" s="12">
+        <v>1.778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>433</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>761</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H34" s="3">
+        <v>499</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>823</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1674</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3158</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1752</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3235</v>
+      </c>
+      <c r="K35" s="12">
+        <v>2.173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>16203</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1972.175</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7581</v>
+      </c>
+      <c r="G36" s="12">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="H36" s="3">
+        <v>16312</v>
+      </c>
+      <c r="I36" s="12">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8064</v>
+      </c>
+      <c r="K36" s="12">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6570</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10872</v>
+      </c>
+      <c r="G37" s="12">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6623</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10960</v>
+      </c>
+      <c r="K37" s="12">
+        <v>6.5369999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3.74</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7506</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6756</v>
+      </c>
+      <c r="I38" s="12">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7842</v>
+      </c>
+      <c r="K38" s="12">
+        <v>4.8959999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4876</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1.794</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4462</v>
+      </c>
+      <c r="I39" s="12">
+        <v>164.739</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5002</v>
+      </c>
+      <c r="K39" s="12">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="12">
+        <v>5.5640000000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9101</v>
+      </c>
+      <c r="G40" s="12">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6652</v>
+      </c>
+      <c r="I40" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10196</v>
+      </c>
+      <c r="K40" s="12">
+        <v>9.1809999999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8454</v>
+      </c>
+      <c r="G41" s="12">
+        <v>5.4269999999999996</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7078</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3.633</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8879</v>
+      </c>
+      <c r="K41" s="12">
+        <v>6.7080000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="12">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9066</v>
+      </c>
+      <c r="G42" s="12">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8851</v>
+      </c>
+      <c r="I42" s="12">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9492</v>
+      </c>
+      <c r="K42" s="12">
+        <v>5.0570000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1229</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1410</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1266</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7738</v>
+      </c>
+      <c r="E44" s="12">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7047</v>
+      </c>
+      <c r="G44" s="12">
+        <v>9.093</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7663</v>
+      </c>
+      <c r="I44" s="12">
+        <v>5.31</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7180</v>
+      </c>
+      <c r="K44" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3934</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4060</v>
+      </c>
+      <c r="G45" s="12">
+        <v>2.9689999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4106</v>
+      </c>
+      <c r="I45" s="12">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4171</v>
+      </c>
+      <c r="K45" s="12">
+        <v>2.6989999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="E46" s="12">
+        <v>5.133</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="G46" s="12">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="I46" s="12">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="K46" s="12">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5545</v>
+      </c>
+      <c r="E47" s="12">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9367</v>
+      </c>
+      <c r="G47" s="12">
+        <v>19.021000000000001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5581</v>
+      </c>
+      <c r="I47" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9597</v>
+      </c>
+      <c r="K47" s="12">
+        <v>13.762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8619</v>
+      </c>
+      <c r="E48" s="12">
+        <v>7.899</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12">
+        <v>32.19</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8159</v>
+      </c>
+      <c r="E49" s="12">
+        <v>7.2720000000000002</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15122</v>
+      </c>
+      <c r="E50" s="12">
+        <v>172.87700000000001</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12">
+        <v>39.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11715</v>
+      </c>
+      <c r="E51" s="12">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12">
+        <v>34.67</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9536</v>
+      </c>
+      <c r="E52" s="12">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40.86</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11894</v>
+      </c>
+      <c r="E53" s="12">
+        <v>19.131</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.27</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11457</v>
+      </c>
+      <c r="E54" s="12">
+        <v>11.077</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12110</v>
+      </c>
+      <c r="E55" s="12">
+        <v>22.963999999999999</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.71</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8892</v>
+      </c>
+      <c r="E56" s="12">
+        <v>12.916</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -23427,21 +25399,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -23487,7 +25444,27 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -23632,15 +25609,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23662,14 +25634,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23685,12 +25665,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFFB74-F731-4A6E-8239-CF5B7E594D3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C74155-0CE6-476F-9929-D5FEEB35E625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="820" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="1500" windowWidth="20850" windowHeight="12510" tabRatio="820" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -26,13 +26,16 @@
     <sheet name="Delta17a" sheetId="20" r:id="rId11"/>
     <sheet name="R19b_bash_5p0" sheetId="29" r:id="rId12"/>
     <sheet name="R20a_5p0" sheetId="30" r:id="rId13"/>
+    <sheet name="R20b_5p0" sheetId="31" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -305,6 +308,9 @@
   <si>
     <t>11-Mar-2020 00:38:31</t>
   </si>
+  <si>
+    <t>9.9.0.1467703 (R2020b)</t>
+  </si>
 </sst>
 </file>
 
@@ -490,6 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,12 +518,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,31 +862,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>42789.555844907409</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -2568,31 +2574,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -4525,29 +4531,29 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -6766,31 +6772,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>43658.784560185188</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -8697,6 +8703,1963 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D5269-33C7-42F5-B761-518CF04E64EE}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>669</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>935</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="3">
+        <v>718</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>298</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="3">
+        <v>317</v>
+      </c>
+      <c r="I6" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>397</v>
+      </c>
+      <c r="K6" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3765</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4749</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5071</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6035</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4.4429999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2052</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2629</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2985</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>620</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>585</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>747</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.182</v>
+      </c>
+      <c r="J9" s="3">
+        <v>487</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>210</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>213</v>
+      </c>
+      <c r="G10" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>222</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225</v>
+      </c>
+      <c r="K10" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9335</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18756</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11535</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20609</v>
+      </c>
+      <c r="K11" s="12">
+        <v>7.9969999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.255</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>721</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>858</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>779</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.155</v>
+      </c>
+      <c r="J15" s="3">
+        <v>943</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1402</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1420</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.152</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1478</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6557</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6736</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5880</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6338</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1.9470000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>290</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>313</v>
+      </c>
+      <c r="G18" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>313</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="J18" s="3">
+        <v>331</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3464</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3689</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3590</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3778</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7298</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7160</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>98695</v>
+      </c>
+      <c r="I20" s="12">
+        <v>11.929</v>
+      </c>
+      <c r="J20" s="3">
+        <v>99776</v>
+      </c>
+      <c r="K20" s="12">
+        <v>14.851000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3633</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4482</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4048</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3909</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.7719999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3195</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3095</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3743</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.601</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3615</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>252</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.308</v>
+      </c>
+      <c r="F24" s="3">
+        <v>252</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="3">
+        <v>252</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="J24" s="3">
+        <v>252</v>
+      </c>
+      <c r="K24" s="12">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4705</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5132</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4543</v>
+      </c>
+      <c r="I25" s="12">
+        <v>6.306</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5114</v>
+      </c>
+      <c r="K25" s="12">
+        <v>7.5110000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13076</v>
+      </c>
+      <c r="E26" s="12">
+        <v>9.1069999999999993</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14827</v>
+      </c>
+      <c r="G26" s="12">
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19533</v>
+      </c>
+      <c r="I26" s="12">
+        <v>9.9429999999999996</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21576</v>
+      </c>
+      <c r="K26" s="12">
+        <v>11.760999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4048</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3527</v>
+      </c>
+      <c r="I27" s="12">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4177</v>
+      </c>
+      <c r="K27" s="12">
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.223</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>848</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.224</v>
+      </c>
+      <c r="H29" s="3">
+        <v>792</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>896</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="12">
+        <v>20.169</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12222</v>
+      </c>
+      <c r="G30" s="12">
+        <v>38.152000000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="12">
+        <v>26.99</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13420</v>
+      </c>
+      <c r="K30" s="12">
+        <v>41.851999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>879</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F31" s="3">
+        <v>912</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H31" s="3">
+        <v>861</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.379</v>
+      </c>
+      <c r="J31" s="3">
+        <v>961</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6120</v>
+      </c>
+      <c r="G32" s="12">
+        <v>15.861000000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6033</v>
+      </c>
+      <c r="K32" s="12">
+        <v>14.212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2712</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4053</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1.909</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3098</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1.389</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4448</v>
+      </c>
+      <c r="K33" s="12">
+        <v>1.778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>433</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>761</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H34" s="3">
+        <v>499</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>823</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1674</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3158</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1752</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3235</v>
+      </c>
+      <c r="K35" s="12">
+        <v>2.173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>16203</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1972.175</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7581</v>
+      </c>
+      <c r="G36" s="12">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="H36" s="3">
+        <v>16312</v>
+      </c>
+      <c r="I36" s="12">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8064</v>
+      </c>
+      <c r="K36" s="12">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6570</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10872</v>
+      </c>
+      <c r="G37" s="12">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6623</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10960</v>
+      </c>
+      <c r="K37" s="12">
+        <v>6.5369999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3.74</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7506</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6756</v>
+      </c>
+      <c r="I38" s="12">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7842</v>
+      </c>
+      <c r="K38" s="12">
+        <v>4.8959999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4876</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1.794</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4462</v>
+      </c>
+      <c r="I39" s="12">
+        <v>164.739</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5002</v>
+      </c>
+      <c r="K39" s="12">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="12">
+        <v>5.5640000000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9101</v>
+      </c>
+      <c r="G40" s="12">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6652</v>
+      </c>
+      <c r="I40" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10196</v>
+      </c>
+      <c r="K40" s="12">
+        <v>9.1809999999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8454</v>
+      </c>
+      <c r="G41" s="12">
+        <v>5.4269999999999996</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7078</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3.633</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8879</v>
+      </c>
+      <c r="K41" s="12">
+        <v>6.7080000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="12">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9066</v>
+      </c>
+      <c r="G42" s="12">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8851</v>
+      </c>
+      <c r="I42" s="12">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9492</v>
+      </c>
+      <c r="K42" s="12">
+        <v>5.0570000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1229</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1410</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1266</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7738</v>
+      </c>
+      <c r="E44" s="12">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7047</v>
+      </c>
+      <c r="G44" s="12">
+        <v>9.093</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7663</v>
+      </c>
+      <c r="I44" s="12">
+        <v>5.31</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7180</v>
+      </c>
+      <c r="K44" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3934</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4060</v>
+      </c>
+      <c r="G45" s="12">
+        <v>2.9689999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4106</v>
+      </c>
+      <c r="I45" s="12">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4171</v>
+      </c>
+      <c r="K45" s="12">
+        <v>2.6989999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="E46" s="12">
+        <v>5.133</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="G46" s="12">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="I46" s="12">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="K46" s="12">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5545</v>
+      </c>
+      <c r="E47" s="12">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9367</v>
+      </c>
+      <c r="G47" s="12">
+        <v>19.021000000000001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5581</v>
+      </c>
+      <c r="I47" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9597</v>
+      </c>
+      <c r="K47" s="12">
+        <v>13.762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8619</v>
+      </c>
+      <c r="E48" s="12">
+        <v>7.899</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12">
+        <v>32.19</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8159</v>
+      </c>
+      <c r="E49" s="12">
+        <v>7.2720000000000002</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15122</v>
+      </c>
+      <c r="E50" s="12">
+        <v>172.87700000000001</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12">
+        <v>39.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11715</v>
+      </c>
+      <c r="E51" s="12">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12">
+        <v>34.67</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9536</v>
+      </c>
+      <c r="E52" s="12">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40.86</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11894</v>
+      </c>
+      <c r="E53" s="12">
+        <v>19.131</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.27</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11457</v>
+      </c>
+      <c r="E54" s="12">
+        <v>11.077</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12110</v>
+      </c>
+      <c r="E55" s="12">
+        <v>22.963999999999999</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.71</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8892</v>
+      </c>
+      <c r="E56" s="12">
+        <v>12.916</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E9D2A1-7314-4972-B9A1-17C0B6C8B208}">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8719,35 +10682,35 @@
         <v>17</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="22">
+        <v>44094.796296296299</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -8794,25 +10757,25 @@
       <c r="C4" s="18">
         <v>6</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="21">
         <v>2401</v>
       </c>
       <c r="E4" s="18">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="F4" s="28">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F4" s="21">
         <v>2401</v>
       </c>
       <c r="G4" s="18">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H4" s="28">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H4" s="21">
         <v>2401</v>
       </c>
       <c r="I4" s="18">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="J4" s="28">
+        <v>0.435</v>
+      </c>
+      <c r="J4" s="21">
         <v>2401</v>
       </c>
       <c r="K4" s="18">
@@ -8833,25 +10796,25 @@
         <v>669</v>
       </c>
       <c r="E5" s="12">
-        <v>0.32</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
       <c r="G5" s="12">
-        <v>0.153</v>
+        <v>0.183</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
       <c r="I5" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
       <c r="K5" s="12">
-        <v>0.14599999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8868,25 +10831,25 @@
         <v>298</v>
       </c>
       <c r="E6" s="12">
-        <v>0.38400000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
       <c r="G6" s="12">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
       <c r="I6" s="12">
-        <v>8.8999999999999996E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K6" s="12">
-        <v>9.6000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -8903,25 +10866,25 @@
         <v>3765</v>
       </c>
       <c r="E7" s="12">
-        <v>2.5249999999999999</v>
+        <v>3.3809999999999998</v>
       </c>
       <c r="F7" s="3">
         <v>4749</v>
       </c>
       <c r="G7" s="12">
-        <v>3.5590000000000002</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H7" s="3">
         <v>5071</v>
       </c>
       <c r="I7" s="12">
-        <v>3.3069999999999999</v>
+        <v>4.5570000000000004</v>
       </c>
       <c r="J7" s="3">
         <v>6035</v>
       </c>
       <c r="K7" s="12">
-        <v>4.4429999999999996</v>
+        <v>5.7709999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -8938,25 +10901,25 @@
         <v>2052</v>
       </c>
       <c r="E8" s="12">
-        <v>0.69699999999999995</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F8" s="3">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="G8" s="12">
-        <v>0.77300000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
       <c r="I8" s="12">
-        <v>0.42299999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>2985</v>
+        <v>2949</v>
       </c>
       <c r="K8" s="12">
-        <v>0.65200000000000002</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -8970,28 +10933,28 @@
         <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E9" s="12">
-        <v>0.28499999999999998</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G9" s="12">
-        <v>0.16600000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="H9" s="3">
-        <v>747</v>
+        <v>665</v>
       </c>
       <c r="I9" s="12">
-        <v>0.182</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K9" s="12">
-        <v>0.14199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -9008,25 +10971,25 @@
         <v>210</v>
       </c>
       <c r="E10" s="12">
-        <v>0.11600000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
       <c r="G10" s="12">
-        <v>6.5000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
       <c r="I10" s="12">
-        <v>0.06</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
       <c r="K10" s="12">
-        <v>6.5000000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -9040,28 +11003,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>9335</v>
+        <v>9430</v>
       </c>
       <c r="E11" s="12">
-        <v>4.3220000000000001</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="F11" s="3">
-        <v>18756</v>
+        <v>18796</v>
       </c>
       <c r="G11" s="12">
-        <v>6.7190000000000003</v>
+        <v>8.4309999999999992</v>
       </c>
       <c r="H11" s="3">
-        <v>11535</v>
+        <v>11385</v>
       </c>
       <c r="I11" s="12">
-        <v>5.2409999999999997</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="J11" s="3">
-        <v>20609</v>
+        <v>20520</v>
       </c>
       <c r="K11" s="12">
-        <v>7.9969999999999999</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -9078,25 +11041,25 @@
         <v>1137</v>
       </c>
       <c r="E12" s="12">
-        <v>0.255</v>
+        <v>0.22</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="12">
-        <v>9.1999999999999998E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="12">
-        <v>8.8999999999999996E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="12">
-        <v>0.09</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -9113,25 +11076,25 @@
         <v>1313</v>
       </c>
       <c r="E13" s="12">
-        <v>0.66</v>
+        <v>0.749</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
       <c r="G13" s="12">
-        <v>0.61599999999999999</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
       <c r="I13" s="12">
-        <v>0.38600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
       <c r="K13" s="12">
-        <v>0.53800000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -9145,28 +11108,28 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="E14" s="12">
-        <v>0.86599999999999999</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="G14" s="12">
-        <v>0.80300000000000005</v>
+        <v>1.028</v>
       </c>
       <c r="H14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="I14" s="12">
-        <v>0.45600000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="K14" s="12">
-        <v>0.54800000000000004</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -9189,19 +11152,19 @@
         <v>858</v>
       </c>
       <c r="G15" s="12">
-        <v>0.17499999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
       <c r="I15" s="12">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
       <c r="K15" s="12">
-        <v>0.13200000000000001</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -9218,25 +11181,25 @@
         <v>1326</v>
       </c>
       <c r="E16" s="12">
-        <v>0.32300000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
       <c r="G16" s="12">
-        <v>0.23599999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
       <c r="I16" s="12">
-        <v>0.152</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
       <c r="K16" s="12">
-        <v>0.19600000000000001</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -9253,25 +11216,25 @@
         <v>6557</v>
       </c>
       <c r="E17" s="12">
-        <v>2.7050000000000001</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="F17" s="3">
         <v>6736</v>
       </c>
       <c r="G17" s="12">
-        <v>1.8480000000000001</v>
+        <v>2.181</v>
       </c>
       <c r="H17" s="3">
         <v>5880</v>
       </c>
       <c r="I17" s="12">
-        <v>2.1019999999999999</v>
+        <v>1.796</v>
       </c>
       <c r="J17" s="3">
         <v>6338</v>
       </c>
       <c r="K17" s="12">
-        <v>1.9470000000000001</v>
+        <v>2.052</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -9288,25 +11251,25 @@
         <v>290</v>
       </c>
       <c r="E18" s="12">
-        <v>0.20699999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="F18" s="3">
         <v>313</v>
       </c>
       <c r="G18" s="12">
-        <v>9.7000000000000003E-2</v>
+        <v>0.124</v>
       </c>
       <c r="H18" s="3">
         <v>313</v>
       </c>
       <c r="I18" s="12">
-        <v>0.104</v>
+        <v>0.11</v>
       </c>
       <c r="J18" s="3">
         <v>331</v>
       </c>
       <c r="K18" s="12">
-        <v>0.16900000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -9320,28 +11283,28 @@
         <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3464</v>
+        <v>3473</v>
       </c>
       <c r="E19" s="12">
-        <v>1.8560000000000001</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>3689</v>
+        <v>3673</v>
       </c>
       <c r="G19" s="12">
-        <v>0.95899999999999996</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="H19" s="3">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="I19" s="12">
-        <v>0.90200000000000002</v>
+        <v>0.995</v>
       </c>
       <c r="J19" s="3">
-        <v>3778</v>
+        <v>3772</v>
       </c>
       <c r="K19" s="12">
-        <v>0.97499999999999998</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -9358,25 +11321,25 @@
         <v>7298</v>
       </c>
       <c r="E20" s="12">
-        <v>1.8420000000000001</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="F20" s="3">
-        <v>7160</v>
+        <v>7174</v>
       </c>
       <c r="G20" s="12">
-        <v>1.5349999999999999</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="H20" s="3">
         <v>98695</v>
       </c>
       <c r="I20" s="12">
-        <v>11.929</v>
+        <v>15.565</v>
       </c>
       <c r="J20" s="3">
-        <v>99776</v>
+        <v>99461</v>
       </c>
       <c r="K20" s="12">
-        <v>14.851000000000001</v>
+        <v>17.187000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -9390,28 +11353,28 @@
         <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3633</v>
+        <v>3713</v>
       </c>
       <c r="E21" s="12">
-        <v>0.97499999999999998</v>
+        <v>1.327</v>
       </c>
       <c r="F21" s="3">
-        <v>4482</v>
+        <v>4540</v>
       </c>
       <c r="G21" s="12">
-        <v>1.0680000000000001</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>4048</v>
+        <v>3980</v>
       </c>
       <c r="I21" s="12">
-        <v>0.6</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="J21" s="3">
-        <v>3909</v>
+        <v>4025</v>
       </c>
       <c r="K21" s="12">
-        <v>0.56399999999999995</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -9425,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="E22" s="12">
-        <v>4.5990000000000002</v>
+        <v>5.6520000000000001</v>
       </c>
       <c r="F22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="G22" s="12">
-        <v>2.8610000000000002</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="I22" s="12">
-        <v>2.8359999999999999</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="J22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="K22" s="12">
-        <v>2.7719999999999998</v>
+        <v>3.6890000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -9460,28 +11423,28 @@
         <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3195</v>
+        <v>3162</v>
       </c>
       <c r="E23" s="12">
-        <v>2.1760000000000002</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="F23" s="3">
-        <v>3095</v>
+        <v>3114</v>
       </c>
       <c r="G23" s="12">
-        <v>1.8759999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="I23" s="12">
-        <v>1.601</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>3615</v>
+        <v>3701</v>
       </c>
       <c r="K23" s="12">
-        <v>1.645</v>
+        <v>2.181</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -9498,25 +11461,25 @@
         <v>252</v>
       </c>
       <c r="E24" s="12">
-        <v>0.308</v>
+        <v>0.24</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
       <c r="G24" s="12">
-        <v>0.08</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
       <c r="I24" s="12">
-        <v>0.08</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
       <c r="K24" s="12">
-        <v>7.8E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -9533,25 +11496,25 @@
         <v>4705</v>
       </c>
       <c r="E25" s="12">
-        <v>6.8380000000000001</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="F25" s="3">
         <v>5132</v>
       </c>
       <c r="G25" s="12">
-        <v>7.1559999999999997</v>
+        <v>10.085000000000001</v>
       </c>
       <c r="H25" s="3">
         <v>4543</v>
       </c>
       <c r="I25" s="12">
-        <v>6.306</v>
+        <v>8.6839999999999993</v>
       </c>
       <c r="J25" s="3">
         <v>5114</v>
       </c>
       <c r="K25" s="12">
-        <v>7.5110000000000001</v>
+        <v>10.162000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -9565,28 +11528,28 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>13076</v>
+        <v>13158</v>
       </c>
       <c r="E26" s="12">
-        <v>9.1069999999999993</v>
+        <v>10.618</v>
       </c>
       <c r="F26" s="3">
-        <v>14827</v>
+        <v>14604</v>
       </c>
       <c r="G26" s="12">
-        <v>7.8959999999999999</v>
+        <v>9.3119999999999994</v>
       </c>
       <c r="H26" s="3">
-        <v>19533</v>
+        <v>22897</v>
       </c>
       <c r="I26" s="12">
-        <v>9.9429999999999996</v>
+        <v>13.752000000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>21576</v>
+        <v>18415</v>
       </c>
       <c r="K26" s="12">
-        <v>11.760999999999999</v>
+        <v>11.677</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -9603,25 +11566,25 @@
         <v>3402</v>
       </c>
       <c r="E27" s="12">
-        <v>4.9989999999999997</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="F27" s="3">
-        <v>4048</v>
+        <v>3938</v>
       </c>
       <c r="G27" s="12">
-        <v>5.7949999999999999</v>
+        <v>5.7709999999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>3527</v>
+        <v>3538</v>
       </c>
       <c r="I27" s="12">
-        <v>4.5190000000000001</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="J27" s="3">
-        <v>4177</v>
+        <v>4199</v>
       </c>
       <c r="K27" s="12">
-        <v>4.3570000000000002</v>
+        <v>5.9569999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -9638,25 +11601,25 @@
         <v>941</v>
       </c>
       <c r="E28" s="12">
-        <v>0.27700000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="12">
-        <v>0.223</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
       <c r="I28" s="12">
-        <v>0.19500000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="12">
-        <v>0.23499999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -9673,25 +11636,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="12">
-        <v>0.38900000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G29" s="12">
-        <v>0.224</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="H29" s="3">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I29" s="12">
-        <v>0.25800000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J29" s="3">
         <v>896</v>
       </c>
       <c r="K29" s="12">
-        <v>0.26500000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -9708,25 +11671,25 @@
         <v>10374</v>
       </c>
       <c r="E30" s="12">
-        <v>20.169</v>
+        <v>28.725000000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>12222</v>
+        <v>12217</v>
       </c>
       <c r="G30" s="12">
-        <v>38.152000000000001</v>
+        <v>40.088000000000001</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="12">
-        <v>26.99</v>
+        <v>30.689</v>
       </c>
       <c r="J30" s="3">
-        <v>13420</v>
+        <v>13505</v>
       </c>
       <c r="K30" s="12">
-        <v>41.851999999999997</v>
+        <v>47.942999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -9740,28 +11703,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E31" s="12">
-        <v>0.63300000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F31" s="3">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G31" s="12">
-        <v>0.82599999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H31" s="3">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="I31" s="12">
-        <v>0.379</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="K31" s="12">
-        <v>0.43</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -9778,25 +11741,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="12">
-        <v>2.6</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>6120</v>
+        <v>5466</v>
       </c>
       <c r="G32" s="12">
-        <v>15.861000000000001</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="12">
-        <v>2.6949999999999998</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="J32" s="3">
-        <v>6033</v>
+        <v>6265</v>
       </c>
       <c r="K32" s="12">
-        <v>14.212</v>
+        <v>15.259</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -9810,28 +11773,28 @@
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2712</v>
+        <v>2684</v>
       </c>
       <c r="E33" s="12">
-        <v>1.3009999999999999</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>4053</v>
+        <v>4063</v>
       </c>
       <c r="G33" s="12">
-        <v>1.909</v>
+        <v>2.113</v>
       </c>
       <c r="H33" s="3">
-        <v>3098</v>
+        <v>3055</v>
       </c>
       <c r="I33" s="12">
-        <v>1.389</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J33" s="3">
-        <v>4448</v>
+        <v>4462</v>
       </c>
       <c r="K33" s="12">
-        <v>1.778</v>
+        <v>2.2879999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -9848,25 +11811,25 @@
         <v>433</v>
       </c>
       <c r="E34" s="12">
-        <v>0.32800000000000001</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F34" s="3">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="G34" s="12">
-        <v>0.95599999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
       <c r="I34" s="12">
-        <v>0.20599999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="J34" s="3">
-        <v>823</v>
+        <v>883</v>
       </c>
       <c r="K34" s="12">
-        <v>0.71099999999999997</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -9883,25 +11846,25 @@
         <v>1674</v>
       </c>
       <c r="E35" s="12">
-        <v>0.95099999999999996</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F35" s="3">
-        <v>3158</v>
+        <v>3222</v>
       </c>
       <c r="G35" s="12">
-        <v>2.4830000000000001</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
       <c r="I35" s="12">
-        <v>0.89</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="J35" s="3">
-        <v>3235</v>
+        <v>3248</v>
       </c>
       <c r="K35" s="12">
-        <v>2.173</v>
+        <v>1.5109999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -9915,28 +11878,28 @@
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>16203</v>
+        <v>10291</v>
       </c>
       <c r="E36" s="12">
-        <v>1972.175</v>
+        <v>4.53</v>
       </c>
       <c r="F36" s="3">
-        <v>7581</v>
+        <v>16038</v>
       </c>
       <c r="G36" s="12">
-        <v>2.7559999999999998</v>
+        <v>9.4749999999999996</v>
       </c>
       <c r="H36" s="3">
-        <v>16312</v>
+        <v>10364</v>
       </c>
       <c r="I36" s="12">
-        <v>5.4539999999999997</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="J36" s="3">
-        <v>8064</v>
+        <v>16313</v>
       </c>
       <c r="K36" s="12">
-        <v>4.1280000000000001</v>
+        <v>10.334</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -9950,28 +11913,28 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6570</v>
+        <v>6572</v>
       </c>
       <c r="E37" s="12">
-        <v>2.7040000000000002</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="F37" s="3">
-        <v>10872</v>
+        <v>10944</v>
       </c>
       <c r="G37" s="12">
-        <v>6.0620000000000003</v>
+        <v>7.944</v>
       </c>
       <c r="H37" s="3">
-        <v>6623</v>
+        <v>6625</v>
       </c>
       <c r="I37" s="12">
-        <v>1.5169999999999999</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="J37" s="3">
-        <v>10960</v>
+        <v>11022</v>
       </c>
       <c r="K37" s="12">
-        <v>6.5369999999999999</v>
+        <v>7.0579999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -9988,25 +11951,25 @@
         <v>6698</v>
       </c>
       <c r="E38" s="12">
-        <v>3.74</v>
+        <v>5.0149999999999997</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="12">
-        <v>4.4290000000000003</v>
+        <v>5.22</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="12">
-        <v>3.6480000000000001</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="12">
-        <v>4.8959999999999999</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -10023,25 +11986,25 @@
         <v>4414</v>
       </c>
       <c r="E39" s="12">
-        <v>2.2749999999999999</v>
+        <v>1.706</v>
       </c>
       <c r="F39" s="3">
-        <v>4876</v>
+        <v>4918</v>
       </c>
       <c r="G39" s="12">
-        <v>1.794</v>
+        <v>1.649</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
       <c r="I39" s="12">
-        <v>164.739</v>
+        <v>0.91</v>
       </c>
       <c r="J39" s="3">
-        <v>5002</v>
+        <v>4991</v>
       </c>
       <c r="K39" s="12">
-        <v>2.52</v>
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -10058,25 +12021,25 @@
         <v>6694</v>
       </c>
       <c r="E40" s="12">
-        <v>5.5640000000000001</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="12">
-        <v>6.8259999999999996</v>
+        <v>6.7309999999999999</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="12">
-        <v>5.33</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="12">
-        <v>9.1809999999999992</v>
+        <v>8.5969999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -10093,25 +12056,25 @@
         <v>6966</v>
       </c>
       <c r="E41" s="12">
-        <v>4.47</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="F41" s="3">
-        <v>8454</v>
+        <v>8343</v>
       </c>
       <c r="G41" s="12">
-        <v>5.4269999999999996</v>
+        <v>4.742</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="12">
-        <v>3.633</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>8879</v>
+        <v>8848</v>
       </c>
       <c r="K41" s="12">
-        <v>6.7080000000000002</v>
+        <v>5.7270000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -10128,25 +12091,25 @@
         <v>8585</v>
       </c>
       <c r="E42" s="12">
-        <v>2.91</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>9066</v>
+        <v>9068</v>
       </c>
       <c r="G42" s="12">
-        <v>3.1989999999999998</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="12">
-        <v>4.0419999999999998</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="J42" s="3">
-        <v>9492</v>
+        <v>9392</v>
       </c>
       <c r="K42" s="12">
-        <v>5.0570000000000004</v>
+        <v>1.8939999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -10163,25 +12126,25 @@
         <v>1229</v>
       </c>
       <c r="E43" s="12">
-        <v>1.1890000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="F43" s="3">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="G43" s="12">
-        <v>1.0129999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
       <c r="I43" s="12">
-        <v>0.63600000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J43" s="3">
-        <v>1510</v>
+        <v>1484</v>
       </c>
       <c r="K43" s="12">
-        <v>0.93500000000000005</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -10195,28 +12158,28 @@
         <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7738</v>
+        <v>7678</v>
       </c>
       <c r="E44" s="12">
-        <v>5.8959999999999999</v>
+        <v>5.9969999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>7047</v>
+        <v>7053</v>
       </c>
       <c r="G44" s="12">
-        <v>9.093</v>
+        <v>9.4369999999999994</v>
       </c>
       <c r="H44" s="3">
-        <v>7663</v>
+        <v>8314</v>
       </c>
       <c r="I44" s="12">
-        <v>5.31</v>
+        <v>6.3410000000000002</v>
       </c>
       <c r="J44" s="3">
-        <v>7180</v>
+        <v>7127</v>
       </c>
       <c r="K44" s="12">
-        <v>9.1199999999999992</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -10230,28 +12193,28 @@
         <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>3934</v>
+        <v>4096</v>
       </c>
       <c r="E45" s="12">
-        <v>2.3250000000000002</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="F45" s="3">
-        <v>4060</v>
+        <v>4265</v>
       </c>
       <c r="G45" s="12">
-        <v>2.9689999999999999</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="H45" s="3">
-        <v>4106</v>
+        <v>4041</v>
       </c>
       <c r="I45" s="12">
-        <v>3.6190000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="J45" s="3">
-        <v>4171</v>
+        <v>4256</v>
       </c>
       <c r="K45" s="12">
-        <v>2.6989999999999998</v>
+        <v>3.3769999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -10265,28 +12228,28 @@
         <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="E46" s="12">
-        <v>5.133</v>
+        <v>4.5629999999999997</v>
       </c>
       <c r="F46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="G46" s="12">
-        <v>4.3410000000000002</v>
+        <v>4.1790000000000003</v>
       </c>
       <c r="H46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="I46" s="12">
-        <v>4.8540000000000001</v>
+        <v>3.9790000000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="K46" s="12">
-        <v>4.2699999999999996</v>
+        <v>4.2389999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -10300,28 +12263,28 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5545</v>
+        <v>5541</v>
       </c>
       <c r="E47" s="12">
-        <v>5.9980000000000002</v>
+        <v>5.79</v>
       </c>
       <c r="F47" s="3">
-        <v>9367</v>
+        <v>9380</v>
       </c>
       <c r="G47" s="12">
-        <v>19.021000000000001</v>
+        <v>10.028</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
       <c r="I47" s="12">
-        <v>7.6</v>
+        <v>5.4770000000000003</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
       <c r="K47" s="12">
-        <v>13.762</v>
+        <v>12.907</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -10338,7 +12301,7 @@
         <v>8619</v>
       </c>
       <c r="E48" s="12">
-        <v>7.899</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>8</v>
@@ -10373,7 +12336,7 @@
         <v>8159</v>
       </c>
       <c r="E49" s="12">
-        <v>7.2720000000000002</v>
+        <v>7.0490000000000004</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>8</v>
@@ -10408,7 +12371,7 @@
         <v>15122</v>
       </c>
       <c r="E50" s="12">
-        <v>172.87700000000001</v>
+        <v>20.718</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>8</v>
@@ -10443,7 +12406,7 @@
         <v>11715</v>
       </c>
       <c r="E51" s="12">
-        <v>10.912000000000001</v>
+        <v>11.837</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>8</v>
@@ -10478,7 +12441,7 @@
         <v>9536</v>
       </c>
       <c r="E52" s="12">
-        <v>9.0150000000000006</v>
+        <v>9.9260000000000002</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>8</v>
@@ -10513,7 +12476,7 @@
         <v>11894</v>
       </c>
       <c r="E53" s="12">
-        <v>19.131</v>
+        <v>26.387</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>8</v>
@@ -10548,7 +12511,7 @@
         <v>11457</v>
       </c>
       <c r="E54" s="12">
-        <v>11.077</v>
+        <v>11.981</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>8</v>
@@ -10580,10 +12543,10 @@
         <v>45.28</v>
       </c>
       <c r="D55" s="2">
-        <v>12110</v>
+        <v>12163</v>
       </c>
       <c r="E55" s="12">
-        <v>22.963999999999999</v>
+        <v>22.986000000000001</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>8</v>
@@ -10612,13 +12575,13 @@
         <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>27.71</v>
+        <v>27.7</v>
       </c>
       <c r="D56" s="2">
-        <v>8892</v>
+        <v>8755</v>
       </c>
       <c r="E56" s="12">
-        <v>12.916</v>
+        <v>12.805999999999999</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>8</v>
@@ -10680,31 +12643,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>42789.786631944444</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -12392,31 +14355,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>42931.033414351848</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -14174,31 +16137,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>42972.043680555558</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -15956,31 +17919,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -17808,31 +19771,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>43147.305428240739</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -19660,31 +21623,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>43167.998923611114</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -21582,31 +23545,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>43266.517997685187</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -23504,31 +25467,31 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="20">
+      <c r="F1" s="22">
         <v>43354.271284722221</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -25400,48 +27363,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25451,20 +27373,6 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -25609,10 +27517,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25634,22 +27597,6 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25665,4 +27612,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C74155-0CE6-476F-9929-D5FEEB35E625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C93E27-09C7-4DDD-BA57-DAC2772E6233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1500" windowWidth="20850" windowHeight="12510" tabRatio="820" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="R19b_bash_5p0" sheetId="29" r:id="rId12"/>
     <sheet name="R20a_5p0" sheetId="30" r:id="rId13"/>
     <sheet name="R20b_5p0" sheetId="31" r:id="rId14"/>
+    <sheet name="R21a_v5p0" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="206">
   <si>
     <t>#</t>
   </si>
@@ -310,6 +311,357 @@
   </si>
   <si>
     <t>9.9.0.1467703 (R2020b)</t>
+  </si>
+  <si>
+    <t>9.10.0.1602886 (R2021a)</t>
+  </si>
+  <si>
+    <t>07-Mar-2021 00:34:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.00</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.00</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.00</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.20</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.00</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.50</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>33.72</t>
+  </si>
+  <si>
+    <t>32.19</t>
+  </si>
+  <si>
+    <t>59.18</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>34.67</t>
+  </si>
+  <si>
+    <t>40.86</t>
+  </si>
+  <si>
+    <t>41.27</t>
+  </si>
+  <si>
+    <t>45.28</t>
+  </si>
+  <si>
+    <t>27.70</t>
   </si>
 </sst>
 </file>
@@ -845,14 +1197,14 @@
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -870,7 +1222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -888,7 +1240,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -923,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -958,7 +1310,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -993,7 +1345,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1028,7 +1380,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1063,7 +1415,7 @@
         <v>4.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1098,7 +1450,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1133,7 +1485,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1168,7 +1520,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1203,7 +1555,7 @@
         <v>7.8609999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1238,7 +1590,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1273,7 +1625,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1308,7 +1660,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1343,7 +1695,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1378,7 +1730,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1413,7 +1765,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1448,7 +1800,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1483,7 +1835,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1518,7 +1870,7 @@
         <v>11.215</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1553,7 +1905,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1588,7 +1940,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1623,7 +1975,7 @@
         <v>5.2389999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1658,7 +2010,7 @@
         <v>14.721</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1693,7 +2045,7 @@
         <v>3.0550000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1728,7 +2080,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1763,7 +2115,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1798,7 +2150,7 @@
         <v>31.332000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1833,7 +2185,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1868,7 +2220,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1903,7 +2255,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1938,7 +2290,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1973,7 +2325,7 @@
         <v>2.359</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2008,7 +2360,7 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2043,7 +2395,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2078,7 +2430,7 @@
         <v>6.9359999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2113,7 +2465,7 @@
         <v>1.7250000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2148,7 +2500,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2183,7 +2535,7 @@
         <v>5.9039999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2218,7 +2570,7 @@
         <v>5.9039999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2253,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2288,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2323,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2358,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2393,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2428,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2463,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2498,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2557,14 +2909,14 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -2582,7 +2934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -2600,7 +2952,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2670,7 +3022,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2705,7 +3057,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2740,7 +3092,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2775,7 +3127,7 @@
         <v>4.0529999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2810,7 +3162,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2845,7 +3197,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2880,7 +3232,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2915,7 +3267,7 @@
         <v>10.728</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2950,7 +3302,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2985,7 +3337,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3020,7 +3372,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3055,7 +3407,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3090,7 +3442,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3125,7 +3477,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3160,7 +3512,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3195,7 +3547,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3230,7 +3582,7 @@
         <v>10.656000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3265,7 +3617,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3300,7 +3652,7 @@
         <v>2.8330000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3335,7 +3687,7 @@
         <v>1.2430000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3370,7 +3722,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3405,7 +3757,7 @@
         <v>4.7919999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3440,7 +3792,7 @@
         <v>9.2189999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3475,7 +3827,7 @@
         <v>5.1970000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3510,7 +3862,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3545,7 +3897,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3580,7 +3932,7 @@
         <v>28.872</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3615,7 +3967,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3650,7 +4002,7 @@
         <v>9.5719999999999992</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3685,7 +4037,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3720,7 +4072,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3755,7 +4107,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3790,7 +4142,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3825,7 +4177,7 @@
         <v>2.8079999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3860,7 +4212,7 @@
         <v>2.839</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3895,7 +4247,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3930,7 +4282,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3965,7 +4317,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4000,7 +4352,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4035,7 +4387,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4070,7 +4422,7 @@
         <v>6.7770000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4105,7 +4457,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4140,7 +4492,7 @@
         <v>2.5659999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4175,7 +4527,7 @@
         <v>7.0439999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -4210,7 +4562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -4245,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -4280,7 +4632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -4315,7 +4667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -4350,7 +4702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4385,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -4420,7 +4772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4455,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4514,14 +4866,14 @@
       <selection pane="bottomRight" activeCell="F38" sqref="F4:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -4537,7 +4889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
@@ -4555,7 +4907,7 @@
       </c>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4633,7 +4985,7 @@
         <v>3.2967032967032996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4676,7 +5028,7 @@
         <v>-0.31914893617021273</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4719,7 +5071,7 @@
         <v>-0.29310344827586193</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4762,7 +5114,7 @@
         <v>2.6518804243008971E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4805,7 +5157,7 @@
         <v>-0.48220064724919104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4848,7 +5200,7 @@
         <v>-0.14173228346456684</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4891,7 +5243,7 @@
         <v>-0.33333333333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4934,7 +5286,7 @@
         <v>-3.6763770512657501E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4977,7 +5329,7 @@
         <v>-3.370786516853936E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5020,7 +5372,7 @@
         <v>-1.5463917525773209E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5063,7 +5415,7 @@
         <v>-0.65461847389558225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5106,7 +5458,7 @@
         <v>-0.13636363636363649</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5149,7 +5501,7 @@
         <v>6.8965517241379379E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5192,7 +5544,7 @@
         <v>-7.6923076923076913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5235,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5278,7 +5630,7 @@
         <v>-0.24756606397774694</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5321,7 +5673,7 @@
         <v>2.0864913062862239E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5364,7 +5716,7 @@
         <v>-0.37470167064439136</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5407,7 +5759,7 @@
         <v>-0.10207715133531153</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5450,7 +5802,7 @@
         <v>-2.6531780874212683E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5493,7 +5845,7 @@
         <v>8.2874804700767649E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -5536,7 +5888,7 @@
         <v>-2.5531914893616971E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -5579,7 +5931,7 @@
         <v>-3.180327868852459</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -5622,7 +5974,7 @@
         <v>-0.26950354609929084</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -5665,7 +6017,7 @@
         <v>6.3034597216902896E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -5708,7 +6060,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -5751,7 +6103,7 @@
         <v>-0.12630331753554511</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -5794,7 +6146,7 @@
         <v>3.5204567078972335E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -5837,7 +6189,7 @@
         <v>-9.2764378478664061E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -5880,7 +6232,7 @@
         <v>-2.2043238660449362E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -5923,7 +6275,7 @@
         <v>-8.5106382978723475E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -5966,7 +6318,7 @@
         <v>0.23010752688172051</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -6009,7 +6361,7 @@
         <v>1.5859284890426934E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -6052,7 +6404,7 @@
         <v>-0.23536231884057951</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -6095,7 +6447,7 @@
         <v>-4.2492917847025642E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -6132,7 +6484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -6169,7 +6521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -6206,7 +6558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -6243,7 +6595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -6280,7 +6632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -6317,7 +6669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -6354,7 +6706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -6391,7 +6743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -6755,14 +7107,14 @@
       <selection pane="bottomRight" activeCell="F47" sqref="F47:K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -6780,7 +7132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -6798,7 +7150,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -6833,7 +7185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -6868,7 +7220,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6903,7 +7255,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6938,7 +7290,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6973,7 +7325,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7008,7 +7360,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7043,7 +7395,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7078,7 +7430,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7113,7 +7465,7 @@
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7148,7 +7500,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7183,7 +7535,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7218,7 +7570,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7253,7 +7605,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7288,7 +7640,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7323,7 +7675,7 @@
         <v>1.589</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7358,7 +7710,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7393,7 +7745,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7428,7 +7780,7 @@
         <v>17.056999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7463,7 +7815,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7498,7 +7850,7 @@
         <v>4.9630000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -7533,7 +7885,7 @@
         <v>1.5449999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -7568,7 +7920,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -7603,7 +7955,7 @@
         <v>7.2190000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -7638,7 +7990,7 @@
         <v>10.081</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -7673,7 +8025,7 @@
         <v>7.9820000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -7708,7 +8060,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -7743,7 +8095,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -7778,7 +8130,7 @@
         <v>60.182000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -7813,7 +8165,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -7848,7 +8200,7 @@
         <v>16.648</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -7883,7 +8235,7 @@
         <v>1.597</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -7918,7 +8270,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -7953,7 +8305,7 @@
         <v>2.7690000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -7988,7 +8340,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -8023,7 +8375,7 @@
         <v>6.117</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -8058,7 +8410,7 @@
         <v>5.2240000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -8093,7 +8445,7 @@
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -8128,7 +8480,7 @@
         <v>8.7129999999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -8163,7 +8515,7 @@
         <v>6.8390000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -8198,7 +8550,7 @@
         <v>2.105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -8233,7 +8585,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -8268,7 +8620,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -8303,7 +8655,7 @@
         <v>3.6360000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -8338,7 +8690,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -8373,7 +8725,7 @@
         <v>13.441000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -8408,7 +8760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -8443,7 +8795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -8478,7 +8830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -8513,7 +8865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -8548,7 +8900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -8583,7 +8935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -8618,7 +8970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -8653,7 +9005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -8712,14 +9064,14 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -8737,7 +9089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -8755,7 +9107,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -8790,7 +9142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -8825,7 +9177,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8860,7 +9212,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8895,7 +9247,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8930,7 +9282,7 @@
         <v>4.4429999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8965,7 +9317,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -9000,7 +9352,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -9035,7 +9387,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -9070,7 +9422,7 @@
         <v>7.9969999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -9105,7 +9457,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -9140,7 +9492,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -9175,7 +9527,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -9210,7 +9562,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -9245,7 +9597,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9280,7 +9632,7 @@
         <v>1.9470000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9315,7 +9667,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9350,7 +9702,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9385,7 +9737,7 @@
         <v>14.851000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9420,7 +9772,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9455,7 +9807,7 @@
         <v>2.7719999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9490,7 +9842,7 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9525,7 +9877,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9560,7 +9912,7 @@
         <v>7.5110000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9595,7 +9947,7 @@
         <v>11.760999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9630,7 +9982,7 @@
         <v>4.3570000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9665,7 +10017,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9700,7 +10052,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9735,7 +10087,7 @@
         <v>41.851999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9770,7 +10122,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -9805,7 +10157,7 @@
         <v>14.212</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -9840,7 +10192,7 @@
         <v>1.778</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -9875,7 +10227,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -9910,7 +10262,7 @@
         <v>2.173</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -9945,7 +10297,7 @@
         <v>4.1280000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -9980,7 +10332,7 @@
         <v>6.5369999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -10015,7 +10367,7 @@
         <v>4.8959999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -10050,7 +10402,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -10085,7 +10437,7 @@
         <v>9.1809999999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -10120,7 +10472,7 @@
         <v>6.7080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -10155,7 +10507,7 @@
         <v>5.0570000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -10190,7 +10542,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -10225,7 +10577,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -10260,7 +10612,7 @@
         <v>2.6989999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -10295,7 +10647,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -10330,7 +10682,7 @@
         <v>13.762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -10365,7 +10717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -10400,7 +10752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -10435,7 +10787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -10470,7 +10822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -10505,7 +10857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -10540,7 +10892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -10575,7 +10927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -10610,7 +10962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10662,21 +11014,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E9D2A1-7314-4972-B9A1-17C0B6C8B208}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -10694,7 +11046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -10712,7 +11064,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -10747,7 +11099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -10782,7 +11134,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -10817,7 +11169,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -10852,7 +11204,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -10887,7 +11239,7 @@
         <v>5.7709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -10922,7 +11274,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -10957,7 +11309,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -10992,7 +11344,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -11027,7 +11379,7 @@
         <v>10.176</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -11062,7 +11414,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -11097,7 +11449,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -11132,7 +11484,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -11167,7 +11519,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -11202,7 +11554,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -11237,7 +11589,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -11272,7 +11624,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -11307,7 +11659,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -11342,7 +11694,7 @@
         <v>17.187000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -11377,7 +11729,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -11412,7 +11764,7 @@
         <v>3.6890000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -11447,7 +11799,7 @@
         <v>2.181</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -11482,7 +11834,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -11517,7 +11869,7 @@
         <v>10.162000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -11552,7 +11904,7 @@
         <v>11.677</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -11587,7 +11939,7 @@
         <v>5.9569999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11622,7 +11974,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11657,7 +12009,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11692,7 +12044,7 @@
         <v>47.942999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11727,7 +12079,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11762,7 +12114,7 @@
         <v>15.259</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11797,7 +12149,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11832,7 +12184,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -11867,7 +12219,7 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -11902,7 +12254,7 @@
         <v>10.334</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -11937,7 +12289,7 @@
         <v>7.0579999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -11972,7 +12324,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -12007,7 +12359,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -12042,7 +12394,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -12077,7 +12429,7 @@
         <v>5.7270000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -12112,7 +12464,7 @@
         <v>1.8939999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -12147,7 +12499,7 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -12182,7 +12534,7 @@
         <v>10.176</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -12217,7 +12569,7 @@
         <v>3.3769999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -12252,7 +12604,7 @@
         <v>4.2389999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -12287,7 +12639,7 @@
         <v>12.907</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -12322,7 +12674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -12357,7 +12709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -12392,7 +12744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -12427,7 +12779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -12462,7 +12814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -12497,7 +12849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -12532,7 +12884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -12567,7 +12919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -12582,6 +12934,1963 @@
       </c>
       <c r="E56" s="12">
         <v>12.805999999999999</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79AE3EC-1813-4587-B8BC-82DFBAD2E468}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3">
+        <v>669</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3">
+        <v>935</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="3">
+        <v>718</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>298</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="3">
+        <v>317</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="3">
+        <v>400</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3765</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1750</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4749</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2311</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5071</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2425</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6035</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2052</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2639</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2949</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3">
+        <v>604</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="3">
+        <v>582</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="3">
+        <v>665</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="3">
+        <v>484</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>210</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3">
+        <v>213</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="3">
+        <v>222</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9430</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2114</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18796</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4596</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11385</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2847</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20520</v>
+      </c>
+      <c r="K11" s="12">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3">
+        <v>721</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="3">
+        <v>858</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="3">
+        <v>779</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="3">
+        <v>943</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1402</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1420</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1478</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6557</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1043</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6736</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1050</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5880</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6338</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="3">
+        <v>290</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="3">
+        <v>313</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3">
+        <v>313</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="3">
+        <v>331</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3473</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3673</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3576</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3772</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7298</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7174</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="3">
+        <v>98695</v>
+      </c>
+      <c r="I20" s="12">
+        <v>8236</v>
+      </c>
+      <c r="J20" s="3">
+        <v>99461</v>
+      </c>
+      <c r="K20" s="12">
+        <v>8569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3713</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4540</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3980</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4025</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1540</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1755</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1540</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1627</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1540</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1582</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1540</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3162</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1098</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3114</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1056</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3753</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1159</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3701</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3">
+        <v>252</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3">
+        <v>252</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="3">
+        <v>252</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="3">
+        <v>252</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4705</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3014</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5132</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3430</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4543</v>
+      </c>
+      <c r="I25" s="12">
+        <v>2985</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5114</v>
+      </c>
+      <c r="K25" s="12">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13158</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4929</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14604</v>
+      </c>
+      <c r="G26" s="12">
+        <v>5283</v>
+      </c>
+      <c r="H26" s="3">
+        <v>22897</v>
+      </c>
+      <c r="I26" s="12">
+        <v>7911</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18415</v>
+      </c>
+      <c r="K26" s="12">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3938</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2390</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3538</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1957</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4199</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="3">
+        <v>847</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="3">
+        <v>788</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="3">
+        <v>896</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="12">
+        <v>9377</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12217</v>
+      </c>
+      <c r="G30" s="12">
+        <v>17067</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="12">
+        <v>14104</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13505</v>
+      </c>
+      <c r="K30" s="12">
+        <v>22230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="3">
+        <v>878</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="3">
+        <v>917</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="3">
+        <v>868</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="3">
+        <v>950</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1310</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5466</v>
+      </c>
+      <c r="G32" s="12">
+        <v>6634</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1256</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6265</v>
+      </c>
+      <c r="K32" s="12">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2684</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4063</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1032</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3055</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4462</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3">
+        <v>433</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="3">
+        <v>770</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="3">
+        <v>499</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" s="3">
+        <v>883</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1674</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3222</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1167</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1752</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3248</v>
+      </c>
+      <c r="K35" s="12">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10291</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2343</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16038</v>
+      </c>
+      <c r="G36" s="12">
+        <v>4806</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10364</v>
+      </c>
+      <c r="I36" s="12">
+        <v>2242</v>
+      </c>
+      <c r="J36" s="3">
+        <v>16313</v>
+      </c>
+      <c r="K36" s="12">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6572</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10944</v>
+      </c>
+      <c r="G37" s="12">
+        <v>2920</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6625</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J37" s="3">
+        <v>11022</v>
+      </c>
+      <c r="K37" s="12">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1744</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7506</v>
+      </c>
+      <c r="G38" s="12">
+        <v>2126</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6756</v>
+      </c>
+      <c r="I38" s="12">
+        <v>1767</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7842</v>
+      </c>
+      <c r="K38" s="12">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4918</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4462</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4991</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2551</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9101</v>
+      </c>
+      <c r="G40" s="12">
+        <v>3619</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6652</v>
+      </c>
+      <c r="I40" s="12">
+        <v>2565</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10196</v>
+      </c>
+      <c r="K40" s="12">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2059</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8343</v>
+      </c>
+      <c r="G41" s="12">
+        <v>3062</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7078</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2074</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8848</v>
+      </c>
+      <c r="K41" s="12">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1197</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9068</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1170</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8851</v>
+      </c>
+      <c r="I42" s="12">
+        <v>1049</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9392</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1229</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1266</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1484</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7678</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3068</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7053</v>
+      </c>
+      <c r="G44" s="12">
+        <v>6018</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8314</v>
+      </c>
+      <c r="I44" s="12">
+        <v>3431</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7127</v>
+      </c>
+      <c r="K44" s="12">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4096</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1465</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4265</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1738</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="12">
+        <v>1396</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4256</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4364</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2756</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4364</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2562</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4364</v>
+      </c>
+      <c r="I46" s="12">
+        <v>2478</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4364</v>
+      </c>
+      <c r="K46" s="12">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5541</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2869</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9380</v>
+      </c>
+      <c r="G47" s="12">
+        <v>5961</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5581</v>
+      </c>
+      <c r="I47" s="12">
+        <v>2836</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9597</v>
+      </c>
+      <c r="K47" s="12">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8619</v>
+      </c>
+      <c r="E48" s="12">
+        <v>4084</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8159</v>
+      </c>
+      <c r="E49" s="12">
+        <v>4286</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15122</v>
+      </c>
+      <c r="E50" s="12">
+        <v>8810</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11715</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7036</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9536</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4901</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11894</v>
+      </c>
+      <c r="E53" s="12">
+        <v>9400</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11457</v>
+      </c>
+      <c r="E54" s="12">
+        <v>7132</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12163</v>
+      </c>
+      <c r="E55" s="12">
+        <v>10380</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8755</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7141</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>8</v>
@@ -12626,14 +14935,14 @@
       <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -12651,7 +14960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -12669,7 +14978,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -12704,7 +15013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -12739,7 +15048,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12774,7 +15083,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12809,7 +15118,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12844,7 +15153,7 @@
         <v>4.1369999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12879,7 +15188,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12914,7 +15223,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12949,7 +15258,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12984,7 +15293,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13019,7 +15328,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13054,7 +15363,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -13089,7 +15398,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -13124,7 +15433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -13159,7 +15468,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -13194,7 +15503,7 @@
         <v>1.554</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -13229,7 +15538,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -13264,7 +15573,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -13299,7 +15608,7 @@
         <v>10.981</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -13334,7 +15643,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -13369,7 +15678,7 @@
         <v>1.857</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -13404,7 +15713,7 @@
         <v>5.3780000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -13439,7 +15748,7 @@
         <v>13.500999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -13474,7 +15783,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -13509,7 +15818,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -13544,7 +15853,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -13579,7 +15888,7 @@
         <v>29.356999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -13614,7 +15923,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -13649,7 +15958,7 @@
         <v>9.5060000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -13684,7 +15993,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -13719,7 +16028,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -13754,7 +16063,7 @@
         <v>2.411</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13789,7 +16098,7 @@
         <v>1.659</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -13824,7 +16133,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -13859,7 +16168,7 @@
         <v>6.9249999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -13894,7 +16203,7 @@
         <v>2.1309999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -13929,7 +16238,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -13964,7 +16273,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -13999,7 +16308,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -14034,7 +16343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -14069,7 +16378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -14104,7 +16413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -14139,7 +16448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -14174,7 +16483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -14209,7 +16518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -14244,7 +16553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -14279,7 +16588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -14338,14 +16647,14 @@
       <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -14363,7 +16672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -14381,7 +16690,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -14416,7 +16725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -14451,7 +16760,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -14486,7 +16795,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -14521,7 +16830,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -14556,7 +16865,7 @@
         <v>3.371</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -14591,7 +16900,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -14626,7 +16935,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -14661,7 +16970,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -14696,7 +17005,7 @@
         <v>7.4960000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -14731,7 +17040,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -14766,7 +17075,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -14801,7 +17110,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -14836,7 +17145,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -14871,7 +17180,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -14906,7 +17215,7 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -14941,7 +17250,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -14976,7 +17285,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -15011,7 +17320,7 @@
         <v>11.951000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -15046,7 +17355,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -15081,7 +17390,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -15116,7 +17425,7 @@
         <v>4.3280000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -15151,7 +17460,7 @@
         <v>11.355</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -15186,7 +17495,7 @@
         <v>3.3420000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -15221,7 +17530,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -15256,7 +17565,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -15291,7 +17600,7 @@
         <v>30.187999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -15326,7 +17635,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -15361,7 +17670,7 @@
         <v>8.1809999999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -15396,7 +17705,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -15431,7 +17740,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -15466,7 +17775,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -15501,7 +17810,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -15536,7 +17845,7 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -15571,7 +17880,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -15606,7 +17915,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -15641,7 +17950,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -15676,7 +17985,7 @@
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -15711,7 +18020,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -15746,7 +18055,7 @@
         <v>5.7850000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -15781,7 +18090,7 @@
         <v>5.7850000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -15816,7 +18125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -15851,7 +18160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -15886,7 +18195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -15921,7 +18230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -15956,7 +18265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -15991,7 +18300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -16026,7 +18335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -16061,7 +18370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -16120,14 +18429,14 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -16145,7 +18454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -16163,7 +18472,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -16198,7 +18507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -16233,7 +18542,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -16268,7 +18577,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -16303,7 +18612,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -16338,7 +18647,7 @@
         <v>3.6720000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -16373,7 +18682,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -16408,7 +18717,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -16443,7 +18752,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -16478,7 +18787,7 @@
         <v>7.774</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -16513,7 +18822,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -16548,7 +18857,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -16583,7 +18892,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -16618,7 +18927,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -16653,7 +18962,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -16688,7 +18997,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -16723,7 +19032,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -16758,7 +19067,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -16793,7 +19102,7 @@
         <v>12.878</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -16828,7 +19137,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -16863,7 +19172,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -16898,7 +19207,7 @@
         <v>4.2670000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -16933,7 +19242,7 @@
         <v>11.162000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -16968,7 +19277,7 @@
         <v>3.1030000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -17003,7 +19312,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -17038,7 +19347,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -17073,7 +19382,7 @@
         <v>29.093</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -17108,7 +19417,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -17143,7 +19452,7 @@
         <v>8.1140000000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -17178,7 +19487,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -17213,7 +19522,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -17248,7 +19557,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -17283,7 +19592,7 @@
         <v>2.1739999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -17318,7 +19627,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -17353,7 +19662,7 @@
         <v>1.665</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -17388,7 +19697,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -17423,7 +19732,7 @@
         <v>2.1949999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -17458,7 +19767,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -17493,7 +19802,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -17528,7 +19837,7 @@
         <v>5.8769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -17563,7 +19872,7 @@
         <v>5.8769999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -17598,7 +19907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -17633,7 +19942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -17668,7 +19977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -17703,7 +20012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -17738,7 +20047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -17773,7 +20082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -17808,7 +20117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -17843,7 +20152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -17902,14 +20211,14 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -17927,7 +20236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -17945,7 +20254,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -17980,7 +20289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -18015,7 +20324,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -18050,7 +20359,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -18085,7 +20394,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -18120,7 +20429,7 @@
         <v>4.0430000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -18155,7 +20464,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -18190,7 +20499,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -18225,7 +20534,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -18260,7 +20569,7 @@
         <v>8.7029999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -18295,7 +20604,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -18330,7 +20639,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -18365,7 +20674,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -18400,7 +20709,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -18435,7 +20744,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -18470,7 +20779,7 @@
         <v>1.792</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -18505,7 +20814,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -18540,7 +20849,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -18575,7 +20884,7 @@
         <v>12.268000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -18610,7 +20919,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -18645,7 +20954,7 @@
         <v>5.3842999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -18680,7 +20989,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -18715,7 +21024,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -18750,7 +21059,7 @@
         <v>4.4370000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -18785,7 +21094,7 @@
         <v>13.122999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -18820,7 +21129,7 @@
         <v>3.556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -18855,7 +21164,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -18890,7 +21199,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -18925,7 +21234,7 @@
         <v>33.411000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -18960,7 +21269,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -18995,7 +21304,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -19030,7 +21339,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -19065,7 +21374,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -19100,7 +21409,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -19135,7 +21444,7 @@
         <v>2.9220000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -19170,7 +21479,7 @@
         <v>2.956</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -19205,7 +21514,7 @@
         <v>1.996</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -19240,7 +21549,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -19275,7 +21584,7 @@
         <v>2.6320000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -19310,7 +21619,7 @@
         <v>2.0459999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -19345,7 +21654,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -19380,7 +21689,7 @@
         <v>7.5419999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -19415,7 +21724,7 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -19450,7 +21759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -19485,7 +21794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -19520,7 +21829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -19555,7 +21864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -19590,7 +21899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -19625,7 +21934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -19660,7 +21969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -19695,7 +22004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -19754,14 +22063,14 @@
       <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -19779,7 +22088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -19797,7 +22106,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -19832,7 +22141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -19867,7 +22176,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -19902,7 +22211,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -19937,7 +22246,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -19972,7 +22281,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -20007,7 +22316,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -20042,7 +22351,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -20077,7 +22386,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -20112,7 +22421,7 @@
         <v>8.8290000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -20147,7 +22456,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -20182,7 +22491,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -20217,7 +22526,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -20252,7 +22561,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -20287,7 +22596,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -20322,7 +22631,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -20357,7 +22666,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -20392,7 +22701,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -20427,7 +22736,7 @@
         <v>28.623000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -20462,7 +22771,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -20497,7 +22806,7 @@
         <v>7.5189000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -20532,7 +22841,7 @@
         <v>1.528</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -20567,7 +22876,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -20602,7 +22911,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -20637,7 +22946,7 @@
         <v>9.7149999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -20672,7 +22981,7 @@
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -20707,7 +23016,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -20742,7 +23051,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -20777,7 +23086,7 @@
         <v>31.821000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -20812,7 +23121,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -20847,7 +23156,7 @@
         <v>10.096</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -20882,7 +23191,7 @@
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -20917,7 +23226,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -20952,7 +23261,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -20987,7 +23296,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -21022,7 +23331,7 @@
         <v>2.891</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -21057,7 +23366,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -21092,7 +23401,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -21127,7 +23436,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -21162,7 +23471,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -21197,7 +23506,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -21232,7 +23541,7 @@
         <v>6.782</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -21267,7 +23576,7 @@
         <v>5.4630000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -21302,7 +23611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -21337,7 +23646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -21372,7 +23681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -21407,7 +23716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -21442,7 +23751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -21477,7 +23786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -21512,7 +23821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -21547,7 +23856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -21606,14 +23915,14 @@
       <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -21631,7 +23940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -21649,7 +23958,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -21684,7 +23993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -21719,7 +24028,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -21754,7 +24063,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -21789,7 +24098,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -21824,7 +24133,7 @@
         <v>3.8210000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -21859,7 +24168,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -21894,7 +24203,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -21929,7 +24238,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -21964,7 +24273,7 @@
         <v>6.274</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -21999,7 +24308,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -22034,7 +24343,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -22069,7 +24378,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -22104,7 +24413,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -22139,7 +24448,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -22174,7 +24483,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -22209,7 +24518,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -22244,7 +24553,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -22279,7 +24588,7 @@
         <v>22.158999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -22314,7 +24623,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -22349,7 +24658,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -22384,7 +24693,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -22419,7 +24728,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -22454,7 +24763,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -22489,7 +24798,7 @@
         <v>6.5869999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -22524,7 +24833,7 @@
         <v>2.6030000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -22559,7 +24868,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -22594,7 +24903,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -22629,7 +24938,7 @@
         <v>22.817</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -22664,7 +24973,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -22699,7 +25008,7 @@
         <v>7.2160000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -22734,7 +25043,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -22769,7 +25078,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -22804,7 +25113,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -22839,7 +25148,7 @@
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -22874,7 +25183,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -22909,7 +25218,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -22944,7 +25253,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -22979,7 +25288,7 @@
         <v>1.637</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -23014,7 +25323,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -23049,7 +25358,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -23084,7 +25393,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -23119,7 +25428,7 @@
         <v>5.0709999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -23154,7 +25463,7 @@
         <v>4.1589999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -23189,7 +25498,7 @@
         <v>32.029000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -23224,7 +25533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -23259,7 +25568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -23294,7 +25603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -23329,7 +25638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -23364,7 +25673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -23399,7 +25708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -23434,7 +25743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -23469,7 +25778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -23528,14 +25837,14 @@
       <selection pane="bottomRight" sqref="A1:K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -23553,7 +25862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -23571,7 +25880,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -23606,7 +25915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -23641,7 +25950,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -23676,7 +25985,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -23711,7 +26020,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -23746,7 +26055,7 @@
         <v>4.4470000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -23781,7 +26090,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -23816,7 +26125,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -23851,7 +26160,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -23886,7 +26195,7 @@
         <v>8.0039999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -23921,7 +26230,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -23956,7 +26265,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -23991,7 +26300,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -24026,7 +26335,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -24061,7 +26370,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -24096,7 +26405,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -24131,7 +26440,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -24166,7 +26475,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -24201,7 +26510,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -24236,7 +26545,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -24271,7 +26580,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -24306,7 +26615,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -24341,7 +26650,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -24376,7 +26685,7 @@
         <v>5.827</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -24411,7 +26720,7 @@
         <v>10.257</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -24446,7 +26755,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -24481,7 +26790,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -24516,7 +26825,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -24551,7 +26860,7 @@
         <v>35.323</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -24586,7 +26895,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -24621,7 +26930,7 @@
         <v>12.441000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -24656,7 +26965,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -24691,7 +27000,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -24726,7 +27035,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -24761,7 +27070,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -24796,7 +27105,7 @@
         <v>2.8279999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -24831,7 +27140,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -24866,7 +27175,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -24901,7 +27210,7 @@
         <v>2.8079999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -24936,7 +27245,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -24971,7 +27280,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -25006,7 +27315,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -25041,7 +27350,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -25076,7 +27385,7 @@
         <v>5.7990000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -25111,7 +27420,7 @@
         <v>8.7370000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -25146,7 +27455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -25181,7 +27490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -25216,7 +27525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -25251,7 +27560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -25286,7 +27595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -25321,7 +27630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -25356,7 +27665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -25391,7 +27700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -25450,14 +27759,14 @@
       <selection pane="bottomRight" activeCell="K1" activeCellId="4" sqref="C1:C1048576 E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -25475,7 +27784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
@@ -25493,7 +27802,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -25528,7 +27837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -25563,7 +27872,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -25598,7 +27907,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -25633,7 +27942,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -25668,7 +27977,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -25703,7 +28012,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -25738,7 +28047,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -25773,7 +28082,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -25808,7 +28117,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -25843,7 +28152,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -25878,7 +28187,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -25913,7 +28222,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -25948,7 +28257,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -25983,7 +28292,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -26018,7 +28327,7 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -26053,7 +28362,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -26088,7 +28397,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -26123,7 +28432,7 @@
         <v>11.047000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -26158,7 +28467,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -26193,7 +28502,7 @@
         <v>4.2729999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -26228,7 +28537,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -26263,7 +28572,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -26298,7 +28607,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -26333,7 +28642,7 @@
         <v>8.6489999999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -26368,7 +28677,7 @@
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -26403,7 +28712,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -26438,7 +28747,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -26473,7 +28782,7 @@
         <v>31.193000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -26508,7 +28817,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -26543,7 +28852,7 @@
         <v>9.2289999999999992</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -26578,7 +28887,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -26613,7 +28922,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -26648,7 +28957,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -26683,7 +28992,7 @@
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -26718,7 +29027,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -26753,7 +29062,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -26788,7 +29097,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -26823,7 +29132,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -26858,7 +29167,7 @@
         <v>1.5640000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -26893,7 +29202,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -26928,7 +29237,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -26963,7 +29272,7 @@
         <v>5.3440000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -26998,7 +29307,7 @@
         <v>2.5710000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -27033,7 +29342,7 @@
         <v>7.3250000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -27068,7 +29377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -27103,7 +29412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -27138,7 +29447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -27173,7 +29482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -27208,7 +29517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -27243,7 +29552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -27278,7 +29587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -27313,7 +29622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -27363,16 +29672,65 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -27517,62 +29875,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -27580,23 +29897,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27614,18 +29923,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AFD78-B614-4106-89F1-546E13F94AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CBCE4-059F-40F4-9C88-FEDFAF8B762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" tabRatio="820" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3345" windowWidth="21600" windowHeight="11385" tabRatio="820" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="R21a_v5p0" sheetId="32" r:id="rId15"/>
     <sheet name="R21b_v5p0" sheetId="33" r:id="rId16"/>
     <sheet name="R22a_v5p0" sheetId="35" r:id="rId17"/>
+    <sheet name="R22b_v5p0" sheetId="36" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="210">
   <si>
     <t>#</t>
   </si>
@@ -672,514 +673,10 @@
     <t>9.12.0.1884302 (R2022a)</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.193</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.185</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.069</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.430</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>0.121</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.970</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>34.66</t>
-  </si>
-  <si>
-    <t>45.27</t>
-  </si>
-  <si>
-    <t>27.71</t>
-  </si>
-  <si>
     <t>10-Mar-2022 08:39:28</t>
   </si>
   <si>
-    <t>1.847</t>
-  </si>
-  <si>
-    <t>2.625</t>
-  </si>
-  <si>
-    <t>2.572</t>
-  </si>
-  <si>
-    <t>3.175</t>
-  </si>
-  <si>
-    <t>2.242</t>
-  </si>
-  <si>
-    <t>5.005</t>
-  </si>
-  <si>
-    <t>3.064</t>
-  </si>
-  <si>
-    <t>6.110</t>
-  </si>
-  <si>
-    <t>1.052</t>
-  </si>
-  <si>
-    <t>1.137</t>
-  </si>
-  <si>
-    <t>1.022</t>
-  </si>
-  <si>
-    <t>1.210</t>
-  </si>
-  <si>
-    <t>9.041</t>
-  </si>
-  <si>
-    <t>9.758</t>
-  </si>
-  <si>
-    <t>2.516</t>
-  </si>
-  <si>
-    <t>2.316</t>
-  </si>
-  <si>
-    <t>2.272</t>
-  </si>
-  <si>
-    <t>2.278</t>
-  </si>
-  <si>
-    <t>1.214</t>
-  </si>
-  <si>
-    <t>1.092</t>
-  </si>
-  <si>
-    <t>1.201</t>
-  </si>
-  <si>
-    <t>1.191</t>
-  </si>
-  <si>
-    <t>3.885</t>
-  </si>
-  <si>
-    <t>4.304</t>
-  </si>
-  <si>
-    <t>3.820</t>
-  </si>
-  <si>
-    <t>4.502</t>
-  </si>
-  <si>
-    <t>5.594</t>
-  </si>
-  <si>
-    <t>6.335</t>
-  </si>
-  <si>
-    <t>8.551</t>
-  </si>
-  <si>
-    <t>7.537</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>2.862</t>
-  </si>
-  <si>
-    <t>2.377</t>
-  </si>
-  <si>
-    <t>3.152</t>
-  </si>
-  <si>
-    <t>11.553</t>
-  </si>
-  <si>
-    <t>19.893</t>
-  </si>
-  <si>
-    <t>16.519</t>
-  </si>
-  <si>
-    <t>25.629</t>
-  </si>
-  <si>
-    <t>1.736</t>
-  </si>
-  <si>
-    <t>7.851</t>
-  </si>
-  <si>
-    <t>1.677</t>
-  </si>
-  <si>
-    <t>9.657</t>
-  </si>
-  <si>
-    <t>1.015</t>
-  </si>
-  <si>
-    <t>1.008</t>
-  </si>
-  <si>
-    <t>1.161</t>
-  </si>
-  <si>
-    <t>1.140</t>
-  </si>
-  <si>
-    <t>2.664</t>
-  </si>
-  <si>
-    <t>5.946</t>
-  </si>
-  <si>
-    <t>2.611</t>
-  </si>
-  <si>
-    <t>6.341</t>
-  </si>
-  <si>
-    <t>1.168</t>
-  </si>
-  <si>
-    <t>3.262</t>
-  </si>
-  <si>
-    <t>3.359</t>
-  </si>
-  <si>
-    <t>2.245</t>
-  </si>
-  <si>
-    <t>2.682</t>
-  </si>
-  <si>
-    <t>2.216</t>
-  </si>
-  <si>
-    <t>2.942</t>
-  </si>
-  <si>
-    <t>3.209</t>
-  </si>
-  <si>
-    <t>4.555</t>
-  </si>
-  <si>
-    <t>3.222</t>
-  </si>
-  <si>
-    <t>5.707</t>
-  </si>
-  <si>
-    <t>2.569</t>
-  </si>
-  <si>
-    <t>3.530</t>
-  </si>
-  <si>
-    <t>2.528</t>
-  </si>
-  <si>
-    <t>3.988</t>
-  </si>
-  <si>
-    <t>1.408</t>
-  </si>
-  <si>
-    <t>1.360</t>
-  </si>
-  <si>
-    <t>1.203</t>
-  </si>
-  <si>
-    <t>1.404</t>
-  </si>
-  <si>
-    <t>3.649</t>
-  </si>
-  <si>
-    <t>6.473</t>
-  </si>
-  <si>
-    <t>4.043</t>
-  </si>
-  <si>
-    <t>6.728</t>
-  </si>
-  <si>
-    <t>1.715</t>
-  </si>
-  <si>
-    <t>2.003</t>
-  </si>
-  <si>
-    <t>1.603</t>
-  </si>
-  <si>
-    <t>1.950</t>
-  </si>
-  <si>
-    <t>3.003</t>
-  </si>
-  <si>
-    <t>2.833</t>
-  </si>
-  <si>
-    <t>2.805</t>
-  </si>
-  <si>
-    <t>2.766</t>
-  </si>
-  <si>
-    <t>3.484</t>
-  </si>
-  <si>
-    <t>7.123</t>
-  </si>
-  <si>
-    <t>3.490</t>
-  </si>
-  <si>
-    <t>7.496</t>
-  </si>
-  <si>
-    <t>4.714</t>
-  </si>
-  <si>
-    <t>4.878</t>
-  </si>
-  <si>
-    <t>10.067</t>
-  </si>
-  <si>
-    <t>7.831</t>
-  </si>
-  <si>
-    <t>5.052</t>
-  </si>
-  <si>
-    <t>10.229</t>
-  </si>
-  <si>
-    <t>8.438</t>
-  </si>
-  <si>
-    <t>11.608</t>
-  </si>
-  <si>
-    <t>8.288</t>
+    <t>9.13.0.2049777 (R2022b)</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1390,12 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17409,11 +16900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6F29E3-F2F9-4CEF-8A57-F1C945B9DE09}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="K1" activeCellId="3" sqref="D1:E1048576 F1:G1048576 H1:I1048576 J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17434,7 +16925,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="22" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="20" t="s">
@@ -17501,32 +16992,32 @@
       <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>91</v>
+      <c r="C4" s="19">
+        <v>6</v>
       </c>
       <c r="D4" s="21">
         <v>2401</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>208</v>
+      <c r="E4" s="19">
+        <v>0.93700000000000006</v>
       </c>
       <c r="F4" s="21">
         <v>2401</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>209</v>
+      <c r="G4" s="19">
+        <v>0.19600000000000001</v>
       </c>
       <c r="H4" s="21">
         <v>2401</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>210</v>
+      <c r="I4" s="19">
+        <v>0.193</v>
       </c>
       <c r="J4" s="21">
         <v>2401</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>211</v>
+      <c r="K4" s="19">
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -17536,32 +17027,32 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>95</v>
+      <c r="C5" s="4">
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>212</v>
+      <c r="E5" s="4">
+        <v>0.17199999999999999</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>99</v>
+      <c r="G5" s="4">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>213</v>
+      <c r="I5" s="4">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>214</v>
+      <c r="K5" s="4">
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -17571,32 +17062,32 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>100</v>
+      <c r="C6" s="4">
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>113</v>
+      <c r="E6" s="4">
+        <v>0.108</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>215</v>
+      <c r="G6" s="4">
+        <v>4.7E-2</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>216</v>
+      <c r="I6" s="4">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J6" s="3">
         <v>397</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>159</v>
+      <c r="K6" s="4">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -17606,32 +17097,32 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>105</v>
+      <c r="C7" s="4">
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>3693</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>284</v>
+      <c r="E7" s="4">
+        <v>1.847</v>
       </c>
       <c r="F7" s="3">
         <v>4900</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>285</v>
+      <c r="G7" s="4">
+        <v>2.625</v>
       </c>
       <c r="H7" s="3">
         <v>4980</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>286</v>
+      <c r="I7" s="4">
+        <v>2.5720000000000001</v>
       </c>
       <c r="J7" s="3">
         <v>5773</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>287</v>
+      <c r="K7" s="4">
+        <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -17641,32 +17132,32 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>106</v>
+      <c r="C8" s="4">
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>2041</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>170</v>
+      <c r="E8" s="4">
+        <v>0.25900000000000001</v>
       </c>
       <c r="F8" s="3">
         <v>2589</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>217</v>
+      <c r="G8" s="4">
+        <v>0.223</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>218</v>
+      <c r="I8" s="4">
+        <v>0.19900000000000001</v>
       </c>
       <c r="J8" s="3">
         <v>2965</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>219</v>
+      <c r="K8" s="4">
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -17676,32 +17167,32 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>111</v>
+      <c r="C9" s="4">
+        <v>1.2</v>
       </c>
       <c r="D9" s="3">
         <v>619</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>220</v>
+      <c r="E9" s="4">
+        <v>0.185</v>
       </c>
       <c r="F9" s="3">
         <v>569</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>221</v>
+      <c r="G9" s="4">
+        <v>0.111</v>
       </c>
       <c r="H9" s="3">
         <v>665</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>138</v>
+      <c r="I9" s="4">
+        <v>0.11</v>
       </c>
       <c r="J9" s="3">
         <v>625</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>222</v>
+      <c r="K9" s="4">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -17711,32 +17202,32 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>100</v>
+      <c r="C10" s="4">
+        <v>1.5</v>
       </c>
       <c r="D10" s="3">
         <v>210</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>223</v>
+      <c r="E10" s="4">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>224</v>
+      <c r="G10" s="4">
+        <v>3.9E-2</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>225</v>
+      <c r="I10" s="4">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>226</v>
+      <c r="K10" s="4">
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -17746,32 +17237,32 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>106</v>
+      <c r="C11" s="4">
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>9430</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>288</v>
+      <c r="E11" s="4">
+        <v>2.242</v>
       </c>
       <c r="F11" s="3">
         <v>18939</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>289</v>
+      <c r="G11" s="4">
+        <v>5.0049999999999999</v>
       </c>
       <c r="H11" s="3">
         <v>11385</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>290</v>
+      <c r="I11" s="4">
+        <v>3.0640000000000001</v>
       </c>
       <c r="J11" s="3">
         <v>20832</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>291</v>
+      <c r="K11" s="4">
+        <v>6.11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -17781,32 +17272,32 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>119</v>
+      <c r="C12" s="4">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>227</v>
+      <c r="E12" s="4">
+        <v>0.13500000000000001</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>228</v>
+      <c r="G12" s="4">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>98</v>
+      <c r="I12" s="4">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>229</v>
+      <c r="K12" s="4">
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -17816,32 +17307,32 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>119</v>
+      <c r="C13" s="4">
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>1313</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>230</v>
+      <c r="E13" s="4">
+        <v>0.22800000000000001</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>231</v>
+      <c r="G13" s="4">
+        <v>0.246</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>232</v>
+      <c r="I13" s="4">
+        <v>0.191</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>233</v>
+      <c r="K13" s="4">
+        <v>0.251</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -17851,32 +17342,32 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>127</v>
+      <c r="C14" s="4">
+        <v>45</v>
       </c>
       <c r="D14" s="3">
         <v>5535</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>234</v>
+      <c r="E14" s="4">
+        <v>0.315</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>235</v>
+      <c r="G14" s="4">
+        <v>0.43</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>236</v>
+      <c r="I14" s="4">
+        <v>0.33200000000000002</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
-      <c r="K14" s="30" t="s">
-        <v>237</v>
+      <c r="K14" s="4">
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -17886,32 +17377,32 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>95</v>
+      <c r="C15" s="4">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>721</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>163</v>
+      <c r="E15" s="4">
+        <v>0.151</v>
       </c>
       <c r="F15" s="3">
         <v>858</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>133</v>
+      <c r="G15" s="4">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>238</v>
+      <c r="I15" s="4">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
-      <c r="K15" s="30" t="s">
-        <v>99</v>
+      <c r="K15" s="4">
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -17921,32 +17412,32 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>119</v>
+      <c r="C16" s="4">
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>1326</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>239</v>
+      <c r="E16" s="4">
+        <v>0.157</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>240</v>
+      <c r="G16" s="4">
+        <v>0.121</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>241</v>
+      <c r="I16" s="4">
+        <v>0.113</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>93</v>
+      <c r="K16" s="4">
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -17956,32 +17447,32 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>140</v>
+      <c r="C17" s="4">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>5471</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>292</v>
+      <c r="E17" s="4">
+        <v>1.052</v>
       </c>
       <c r="F17" s="3">
         <v>6809</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>293</v>
+      <c r="G17" s="4">
+        <v>1.137</v>
       </c>
       <c r="H17" s="3">
         <v>5954</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>294</v>
+      <c r="I17" s="4">
+        <v>1.022</v>
       </c>
       <c r="J17" s="3">
         <v>6359</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>295</v>
+      <c r="K17" s="4">
+        <v>1.21</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -17991,32 +17482,32 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>142</v>
+      <c r="C18" s="4">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>283</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>242</v>
+      <c r="E18" s="4">
+        <v>0.107</v>
       </c>
       <c r="F18" s="3">
         <v>314</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>146</v>
+      <c r="G18" s="4">
+        <v>0.06</v>
       </c>
       <c r="H18" s="3">
         <v>308</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>145</v>
+      <c r="I18" s="4">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J18" s="3">
         <v>340</v>
       </c>
-      <c r="K18" s="30" t="s">
-        <v>98</v>
+      <c r="K18" s="4">
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -18026,32 +17517,32 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>147</v>
+      <c r="C19" s="4">
+        <v>30</v>
       </c>
       <c r="D19" s="3">
         <v>3484</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>243</v>
+      <c r="E19" s="4">
+        <v>0.68899999999999995</v>
       </c>
       <c r="F19" s="3">
         <v>3674</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>244</v>
+      <c r="G19" s="4">
+        <v>0.57799999999999996</v>
       </c>
       <c r="H19" s="3">
         <v>3542</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>245</v>
+      <c r="I19" s="4">
+        <v>0.53600000000000003</v>
       </c>
       <c r="J19" s="3">
         <v>3822</v>
       </c>
-      <c r="K19" s="30" t="s">
-        <v>246</v>
+      <c r="K19" s="4">
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -18061,32 +17552,32 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>151</v>
+      <c r="C20" s="4">
+        <v>50</v>
       </c>
       <c r="D20" s="3">
         <v>7113</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>247</v>
+      <c r="E20" s="4">
+        <v>0.95299999999999996</v>
       </c>
       <c r="F20" s="3">
         <v>7088</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>248</v>
+      <c r="G20" s="4">
+        <v>0.82099999999999995</v>
       </c>
       <c r="H20" s="3">
         <v>98562</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>296</v>
+      <c r="I20" s="4">
+        <v>9.0410000000000004</v>
       </c>
       <c r="J20" s="3">
         <v>99408</v>
       </c>
-      <c r="K20" s="30" t="s">
-        <v>297</v>
+      <c r="K20" s="4">
+        <v>9.7579999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -18096,32 +17587,32 @@
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>147</v>
+      <c r="C21" s="4">
+        <v>30</v>
       </c>
       <c r="D21" s="3">
         <v>3595</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>249</v>
+      <c r="E21" s="4">
+        <v>0.499</v>
       </c>
       <c r="F21" s="3">
         <v>4516</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>250</v>
+      <c r="G21" s="4">
+        <v>0.56599999999999995</v>
       </c>
       <c r="H21" s="3">
         <v>3935</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>251</v>
+      <c r="I21" s="4">
+        <v>0.38600000000000001</v>
       </c>
       <c r="J21" s="3">
         <v>4328</v>
       </c>
-      <c r="K21" s="30" t="s">
-        <v>252</v>
+      <c r="K21" s="4">
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -18131,32 +17622,32 @@
       <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>119</v>
+      <c r="C22" s="4">
+        <v>10</v>
       </c>
       <c r="D22" s="3">
         <v>1698</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>298</v>
+      <c r="E22" s="4">
+        <v>2.516</v>
       </c>
       <c r="F22" s="3">
         <v>1698</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>299</v>
+      <c r="G22" s="4">
+        <v>2.3159999999999998</v>
       </c>
       <c r="H22" s="3">
         <v>1698</v>
       </c>
-      <c r="I22" s="30" t="s">
-        <v>300</v>
+      <c r="I22" s="4">
+        <v>2.2719999999999998</v>
       </c>
       <c r="J22" s="3">
         <v>1698</v>
       </c>
-      <c r="K22" s="30" t="s">
-        <v>301</v>
+      <c r="K22" s="4">
+        <v>2.278</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -18166,32 +17657,32 @@
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>140</v>
+      <c r="C23" s="4">
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>3248</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>302</v>
+      <c r="E23" s="4">
+        <v>1.214</v>
       </c>
       <c r="F23" s="3">
         <v>3139</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>303</v>
+      <c r="G23" s="4">
+        <v>1.0920000000000001</v>
       </c>
       <c r="H23" s="3">
         <v>3708</v>
       </c>
-      <c r="I23" s="30" t="s">
-        <v>304</v>
+      <c r="I23" s="4">
+        <v>1.2010000000000001</v>
       </c>
       <c r="J23" s="3">
         <v>3484</v>
       </c>
-      <c r="K23" s="30" t="s">
-        <v>305</v>
+      <c r="K23" s="4">
+        <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -18201,32 +17692,32 @@
       <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>95</v>
+      <c r="C24" s="4">
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>167</v>
+      <c r="E24" s="4">
+        <v>0.14099999999999999</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>253</v>
+      <c r="G24" s="4">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="30" t="s">
-        <v>254</v>
+      <c r="I24" s="4">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="30" t="s">
-        <v>255</v>
+      <c r="K24" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -18236,32 +17727,32 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>147</v>
+      <c r="C25" s="4">
+        <v>30</v>
       </c>
       <c r="D25" s="3">
         <v>4702</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>306</v>
+      <c r="E25" s="4">
+        <v>3.8849999999999998</v>
       </c>
       <c r="F25" s="3">
         <v>5141</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>307</v>
+      <c r="G25" s="4">
+        <v>4.3040000000000003</v>
       </c>
       <c r="H25" s="3">
         <v>4545</v>
       </c>
-      <c r="I25" s="30" t="s">
-        <v>308</v>
+      <c r="I25" s="4">
+        <v>3.82</v>
       </c>
       <c r="J25" s="3">
         <v>5147</v>
       </c>
-      <c r="K25" s="30" t="s">
-        <v>309</v>
+      <c r="K25" s="4">
+        <v>4.5019999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -18271,32 +17762,32 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>160</v>
+      <c r="C26" s="4">
+        <v>12</v>
       </c>
       <c r="D26" s="3">
         <v>14079</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>310</v>
+      <c r="E26" s="4">
+        <v>5.5940000000000003</v>
       </c>
       <c r="F26" s="3">
         <v>16297</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>311</v>
+      <c r="G26" s="4">
+        <v>6.335</v>
       </c>
       <c r="H26" s="3">
         <v>22680</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>312</v>
+      <c r="I26" s="4">
+        <v>8.5510000000000002</v>
       </c>
       <c r="J26" s="3">
         <v>19378</v>
       </c>
-      <c r="K26" s="30" t="s">
-        <v>313</v>
+      <c r="K26" s="4">
+        <v>7.5369999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -18306,32 +17797,32 @@
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>161</v>
+      <c r="C27" s="4">
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>3402</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>314</v>
+      <c r="E27" s="4">
+        <v>2.452</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>315</v>
+      <c r="G27" s="4">
+        <v>2.8620000000000001</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
-      <c r="I27" s="30" t="s">
-        <v>316</v>
+      <c r="I27" s="4">
+        <v>2.3769999999999998</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
-      <c r="K27" s="30" t="s">
-        <v>317</v>
+      <c r="K27" s="4">
+        <v>3.1520000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -18341,32 +17832,32 @@
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>162</v>
+      <c r="C28" s="4">
+        <v>7.5</v>
       </c>
       <c r="D28" s="3">
         <v>941</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>256</v>
+      <c r="E28" s="4">
+        <v>0.20899999999999999</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>257</v>
+      <c r="G28" s="4">
+        <v>0.13800000000000001</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>258</v>
+      <c r="I28" s="4">
+        <v>0.13200000000000001</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="30" t="s">
-        <v>259</v>
+      <c r="K28" s="4">
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -18376,32 +17867,32 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>106</v>
+      <c r="C29" s="4">
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>757</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>260</v>
+      <c r="E29" s="4">
+        <v>0.19</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>259</v>
+      <c r="G29" s="4">
+        <v>0.14899999999999999</v>
       </c>
       <c r="H29" s="3">
         <v>792</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>261</v>
+      <c r="I29" s="4">
+        <v>0.14799999999999999</v>
       </c>
       <c r="J29" s="3">
         <v>892</v>
       </c>
-      <c r="K29" s="30" t="s">
-        <v>211</v>
+      <c r="K29" s="4">
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -18411,32 +17902,32 @@
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>161</v>
+      <c r="C30" s="4">
+        <v>20</v>
       </c>
       <c r="D30" s="3">
         <v>10374</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>318</v>
+      <c r="E30" s="4">
+        <v>11.553000000000001</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>319</v>
+      <c r="G30" s="4">
+        <v>19.893000000000001</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>320</v>
+      <c r="I30" s="4">
+        <v>16.518999999999998</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
-      <c r="K30" s="30" t="s">
-        <v>321</v>
+      <c r="K30" s="4">
+        <v>25.629000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -18446,32 +17937,32 @@
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>106</v>
+      <c r="C31" s="4">
+        <v>5</v>
       </c>
       <c r="D31" s="3">
         <v>878</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>262</v>
+      <c r="E31" s="4">
+        <v>0.28000000000000003</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>263</v>
+      <c r="G31" s="4">
+        <v>0.21199999999999999</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
-      <c r="I31" s="30" t="s">
-        <v>264</v>
+      <c r="I31" s="4">
+        <v>0.20499999999999999</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
-      <c r="K31" s="30" t="s">
-        <v>265</v>
+      <c r="K31" s="4">
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -18481,32 +17972,32 @@
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>161</v>
+      <c r="C32" s="4">
+        <v>20</v>
       </c>
       <c r="D32" s="3">
         <v>2434</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>322</v>
+      <c r="E32" s="4">
+        <v>1.736</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
-      <c r="G32" s="30" t="s">
-        <v>323</v>
+      <c r="G32" s="4">
+        <v>7.851</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>324</v>
+      <c r="I32" s="4">
+        <v>1.677</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>325</v>
+      <c r="K32" s="4">
+        <v>9.657</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -18516,32 +18007,32 @@
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>119</v>
+      <c r="C33" s="4">
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>2684</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>266</v>
+      <c r="E33" s="4">
+        <v>0.64800000000000002</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>326</v>
+      <c r="G33" s="4">
+        <v>1.0149999999999999</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
-      <c r="I33" s="30" t="s">
-        <v>267</v>
+      <c r="I33" s="4">
+        <v>0.56699999999999995</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>327</v>
+      <c r="K33" s="4">
+        <v>1.008</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -18551,32 +18042,32 @@
       <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>105</v>
+      <c r="C34" s="4">
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>433</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>107</v>
+      <c r="E34" s="4">
+        <v>0.20699999999999999</v>
       </c>
       <c r="F34" s="3">
         <v>770</v>
       </c>
-      <c r="G34" s="30" t="s">
-        <v>268</v>
+      <c r="G34" s="4">
+        <v>0.46100000000000002</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>269</v>
+      <c r="I34" s="4">
+        <v>0.154</v>
       </c>
       <c r="J34" s="3">
         <v>883</v>
       </c>
-      <c r="K34" s="30" t="s">
-        <v>270</v>
+      <c r="K34" s="4">
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -18586,32 +18077,32 @@
       <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>180</v>
+      <c r="C35" s="4">
+        <v>11</v>
       </c>
       <c r="D35" s="3">
         <v>1674</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>271</v>
+      <c r="E35" s="4">
+        <v>0.51300000000000001</v>
       </c>
       <c r="F35" s="3">
         <v>3215</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>328</v>
+      <c r="G35" s="4">
+        <v>1.161</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>110</v>
+      <c r="I35" s="4">
+        <v>0.41199999999999998</v>
       </c>
       <c r="J35" s="3">
         <v>3173</v>
       </c>
-      <c r="K35" s="30" t="s">
-        <v>329</v>
+      <c r="K35" s="4">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -18621,32 +18112,32 @@
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>183</v>
+      <c r="C36" s="4">
+        <v>36</v>
       </c>
       <c r="D36" s="3">
         <v>10291</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>330</v>
+      <c r="E36" s="4">
+        <v>2.6640000000000001</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>331</v>
+      <c r="G36" s="4">
+        <v>5.9459999999999997</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>332</v>
+      <c r="I36" s="4">
+        <v>2.6110000000000002</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
-      <c r="K36" s="30" t="s">
-        <v>333</v>
+      <c r="K36" s="4">
+        <v>6.3410000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -18656,32 +18147,32 @@
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>184</v>
+      <c r="C37" s="4">
+        <v>48</v>
       </c>
       <c r="D37" s="3">
         <v>6572</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>334</v>
+      <c r="E37" s="4">
+        <v>1.1679999999999999</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>335</v>
+      <c r="G37" s="4">
+        <v>3.262</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>272</v>
+      <c r="I37" s="4">
+        <v>0.97</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
-      <c r="K37" s="30" t="s">
-        <v>336</v>
+      <c r="K37" s="4">
+        <v>3.359</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -18691,32 +18182,32 @@
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>183</v>
+      <c r="C38" s="4">
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>6698</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>337</v>
+      <c r="E38" s="4">
+        <v>2.2450000000000001</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>338</v>
+      <c r="G38" s="4">
+        <v>2.6819999999999999</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>339</v>
+      <c r="I38" s="4">
+        <v>2.2160000000000002</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
-      <c r="K38" s="30" t="s">
-        <v>340</v>
+      <c r="K38" s="4">
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -18726,32 +18217,32 @@
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>187</v>
+      <c r="C39" s="4">
+        <v>40</v>
       </c>
       <c r="D39" s="3">
         <v>4414</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>273</v>
+      <c r="E39" s="4">
+        <v>0.80400000000000005</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
-      <c r="G39" s="30" t="s">
-        <v>274</v>
+      <c r="G39" s="4">
+        <v>0.82899999999999996</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
-      <c r="I39" s="30" t="s">
-        <v>275</v>
+      <c r="I39" s="4">
+        <v>0.64600000000000002</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
-      <c r="K39" s="30" t="s">
-        <v>276</v>
+      <c r="K39" s="4">
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -18761,32 +18252,32 @@
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>183</v>
+      <c r="C40" s="4">
+        <v>36</v>
       </c>
       <c r="D40" s="3">
         <v>6694</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>341</v>
+      <c r="E40" s="4">
+        <v>3.2090000000000001</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>342</v>
+      <c r="G40" s="4">
+        <v>4.5549999999999997</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
-      <c r="I40" s="30" t="s">
-        <v>343</v>
+      <c r="I40" s="4">
+        <v>3.222</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
-      <c r="K40" s="30" t="s">
-        <v>344</v>
+      <c r="K40" s="4">
+        <v>5.7069999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -18796,32 +18287,32 @@
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>183</v>
+      <c r="C41" s="4">
+        <v>36</v>
       </c>
       <c r="D41" s="3">
         <v>6966</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>345</v>
+      <c r="E41" s="4">
+        <v>2.569</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>346</v>
+      <c r="G41" s="4">
+        <v>3.53</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
-      <c r="I41" s="30" t="s">
-        <v>347</v>
+      <c r="I41" s="4">
+        <v>2.528</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
-      <c r="K41" s="30" t="s">
-        <v>348</v>
+      <c r="K41" s="4">
+        <v>3.988</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -18831,32 +18322,32 @@
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>187</v>
+      <c r="C42" s="4">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>8585</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>349</v>
+      <c r="E42" s="4">
+        <v>1.4079999999999999</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>350</v>
+      <c r="G42" s="4">
+        <v>1.36</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
-      <c r="I42" s="30" t="s">
-        <v>351</v>
+      <c r="I42" s="4">
+        <v>1.2030000000000001</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
-      <c r="K42" s="30" t="s">
-        <v>352</v>
+      <c r="K42" s="4">
+        <v>1.4039999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -18866,32 +18357,32 @@
       <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>119</v>
+      <c r="C43" s="4">
+        <v>10</v>
       </c>
       <c r="D43" s="3">
         <v>1229</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>277</v>
+      <c r="E43" s="4">
+        <v>0.53300000000000003</v>
       </c>
       <c r="F43" s="3">
         <v>1401</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>278</v>
+      <c r="G43" s="4">
+        <v>0.54200000000000004</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
-      <c r="I43" s="30" t="s">
-        <v>279</v>
+      <c r="I43" s="4">
+        <v>0.45200000000000001</v>
       </c>
       <c r="J43" s="3">
         <v>1484</v>
       </c>
-      <c r="K43" s="30" t="s">
-        <v>244</v>
+      <c r="K43" s="4">
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -18901,32 +18392,32 @@
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>196</v>
+      <c r="C44" s="4">
+        <v>24</v>
       </c>
       <c r="D44" s="3">
         <v>7678</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>353</v>
+      <c r="E44" s="4">
+        <v>3.649</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>354</v>
+      <c r="G44" s="4">
+        <v>6.4729999999999999</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
-      <c r="I44" s="30" t="s">
-        <v>355</v>
+      <c r="I44" s="4">
+        <v>4.0430000000000001</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
-      <c r="K44" s="30" t="s">
-        <v>356</v>
+      <c r="K44" s="4">
+        <v>6.7279999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -18936,32 +18427,32 @@
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>147</v>
+      <c r="C45" s="4">
+        <v>30</v>
       </c>
       <c r="D45" s="3">
         <v>4096</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>357</v>
+      <c r="E45" s="4">
+        <v>1.7150000000000001</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>358</v>
+      <c r="G45" s="4">
+        <v>2.0030000000000001</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
-      <c r="I45" s="30" t="s">
-        <v>359</v>
+      <c r="I45" s="4">
+        <v>1.603</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
-      <c r="K45" s="30" t="s">
-        <v>360</v>
+      <c r="K45" s="4">
+        <v>1.95</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -18971,32 +18462,32 @@
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>147</v>
+      <c r="C46" s="4">
+        <v>30</v>
       </c>
       <c r="D46" s="3">
         <v>4365</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>361</v>
+      <c r="E46" s="4">
+        <v>3.0030000000000001</v>
       </c>
       <c r="F46" s="3">
         <v>4365</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>362</v>
+      <c r="G46" s="4">
+        <v>2.8330000000000002</v>
       </c>
       <c r="H46" s="3">
         <v>4365</v>
       </c>
-      <c r="I46" s="30" t="s">
-        <v>363</v>
+      <c r="I46" s="4">
+        <v>2.8050000000000002</v>
       </c>
       <c r="J46" s="3">
         <v>4365</v>
       </c>
-      <c r="K46" s="30" t="s">
-        <v>364</v>
+      <c r="K46" s="4">
+        <v>2.766</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -19006,32 +18497,32 @@
       <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>151</v>
+      <c r="C47" s="4">
+        <v>50</v>
       </c>
       <c r="D47" s="3">
         <v>5541</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>365</v>
+      <c r="E47" s="4">
+        <v>3.484</v>
       </c>
       <c r="F47" s="3">
         <v>9380</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>366</v>
+      <c r="G47" s="4">
+        <v>7.1230000000000002</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
-      <c r="I47" s="30" t="s">
-        <v>367</v>
+      <c r="I47" s="4">
+        <v>3.49</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
-      <c r="K47" s="30" t="s">
-        <v>368</v>
+      <c r="K47" s="4">
+        <v>7.4960000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -19041,14 +18532,14 @@
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>197</v>
+      <c r="C48" s="4">
+        <v>33.72</v>
       </c>
       <c r="D48" s="3">
         <v>9020</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>369</v>
+      <c r="E48" s="4">
+        <v>4.7140000000000004</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>8</v>
@@ -19076,14 +18567,14 @@
       <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>198</v>
+      <c r="C49" s="4">
+        <v>32.19</v>
       </c>
       <c r="D49" s="3">
         <v>8491</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>370</v>
+      <c r="E49" s="4">
+        <v>4.8780000000000001</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>8</v>
@@ -19111,14 +18602,14 @@
       <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>199</v>
+      <c r="C50" s="4">
+        <v>59.18</v>
       </c>
       <c r="D50" s="3">
         <v>15372</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>371</v>
+      <c r="E50" s="4">
+        <v>10.067</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>8</v>
@@ -19146,14 +18637,14 @@
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>200</v>
+      <c r="C51" s="4">
+        <v>39.01</v>
       </c>
       <c r="D51" s="3">
         <v>11644</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>372</v>
+      <c r="E51" s="4">
+        <v>7.8310000000000004</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>8</v>
@@ -19181,14 +18672,14 @@
       <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>280</v>
+      <c r="C52" s="4">
+        <v>34.659999999999997</v>
       </c>
       <c r="D52" s="3">
         <v>8987</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>373</v>
+      <c r="E52" s="4">
+        <v>5.0519999999999996</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>8</v>
@@ -19216,14 +18707,14 @@
       <c r="B53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>202</v>
+      <c r="C53" s="9">
+        <v>40.86</v>
       </c>
       <c r="D53" s="2">
         <v>11692</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>374</v>
+      <c r="E53" s="4">
+        <v>10.228999999999999</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>8</v>
@@ -19251,14 +18742,14 @@
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>203</v>
+      <c r="C54" s="9">
+        <v>41.27</v>
       </c>
       <c r="D54" s="2">
         <v>11533</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>375</v>
+      <c r="E54" s="4">
+        <v>8.4380000000000006</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>8</v>
@@ -19286,14 +18777,14 @@
       <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>281</v>
+      <c r="C55" s="9">
+        <v>45.27</v>
       </c>
       <c r="D55" s="2">
         <v>12158</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>376</v>
+      <c r="E55" s="4">
+        <v>11.608000000000001</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>8</v>
@@ -19321,14 +18812,1971 @@
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>282</v>
+      <c r="C56" s="9">
+        <v>27.71</v>
       </c>
       <c r="D56" s="2">
         <v>9118</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>377</v>
+      <c r="E56" s="4">
+        <v>8.2880000000000003</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC0C69C-EBEE-4001-BB79-5B55597B54C2}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="22">
+        <v>44823.018969907411</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2401</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>669</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>949</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>718</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1020</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>298</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="3">
+        <v>317</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>397</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3795</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4679</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5182</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6371</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.8660000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2050</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2612</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2292</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2933</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>657</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>582</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="3">
+        <v>662</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="J9" s="3">
+        <v>641</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>209</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>211</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>221</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>223</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9559</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18843</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.9210000000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11555</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.2930000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21239</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6.0720000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1316</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1419</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1387</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1542</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5420</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5420</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5420</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5420</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>735</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="F15" s="3">
+        <v>850</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>783</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>953</v>
+      </c>
+      <c r="K15" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1318</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1402</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1421</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1480</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5004</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6868</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.198</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5768</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6316</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>277</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>301</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>308</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>348</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3487</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3651</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3573</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3772</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7410</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7516</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="H20" s="3">
+        <v>99778</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8.8119999999999994</v>
+      </c>
+      <c r="J20" s="3">
+        <v>98616</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9.548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3587</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4550</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3984</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4120</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1597</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1597</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.835</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1597</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1597</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3165</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3068</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.075</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3692</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3489</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>252</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="F24" s="3">
+        <v>252</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>252</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>252</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4702</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5141</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4545</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.202</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5137</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13720</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5.6319999999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14313</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20616</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8.0640000000000001</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16256</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6.5350000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3411</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.294</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4076</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3548</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4338</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3.0990000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>940</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="H28" s="3">
+        <v>966</v>
+      </c>
+      <c r="I28" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>847</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>785</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="J29" s="3">
+        <v>891</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10365</v>
+      </c>
+      <c r="E30" s="12">
+        <v>9.7910000000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12280</v>
+      </c>
+      <c r="G30" s="3">
+        <v>18.25</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11846</v>
+      </c>
+      <c r="I30" s="3">
+        <v>14.339</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13333</v>
+      </c>
+      <c r="K30" s="3">
+        <v>23.221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>879</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F31" s="3">
+        <v>909</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>861</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="J31" s="3">
+        <v>955</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1.484</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5658</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7.9240000000000004</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2515</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6056</v>
+      </c>
+      <c r="K32" s="3">
+        <v>8.8040000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2644</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4092</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3098</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4409</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>429</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>762</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H34" s="3">
+        <v>477</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="J34" s="3">
+        <v>837</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1665</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3225</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1745</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3211</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10307</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16020</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5.0670000000000002</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10347</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2.335</v>
+      </c>
+      <c r="J36" s="3">
+        <v>16332</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5.415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6519</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F37" s="3">
+        <v>11040</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6618</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J37" s="3">
+        <v>11046</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.1520000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6693</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7527</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6770</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.802</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7707</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2.4790000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4350</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4948</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4451</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4970</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6647</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8974</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6656</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10124</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4.6139999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6983</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8333</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7185</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8668</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3.4510000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="12">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8579</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1.26</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9099</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8884</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.069</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9506</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1228</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1411</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1265</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7562</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7437</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7648</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7491</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4109</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1.569</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4170</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4256</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4223</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4357</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4357</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4357</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4357</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.5640000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5528</v>
+      </c>
+      <c r="E47" s="12">
+        <v>3.214</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9339</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6.3419999999999996</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5558</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9608</v>
+      </c>
+      <c r="K47" s="3">
+        <v>6.6970000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8888</v>
+      </c>
+      <c r="E48" s="12">
+        <v>4.351</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12">
+        <v>32.19</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8367</v>
+      </c>
+      <c r="E49" s="12">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15261</v>
+      </c>
+      <c r="E50" s="12">
+        <v>9.4329999999999998</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12">
+        <v>39.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11806</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7.4960000000000004</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12">
+        <v>34.71</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9089</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40.82</v>
+      </c>
+      <c r="D53" s="2">
+        <v>12195</v>
+      </c>
+      <c r="E53" s="12">
+        <v>10.343</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.27</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11490</v>
+      </c>
+      <c r="E54" s="12">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.27</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12065</v>
+      </c>
+      <c r="E55" s="12">
+        <v>10.705</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.69</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8812</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7.5309999999999997</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>8</v>
@@ -34109,57 +35557,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -34304,13 +35701,58 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34319,23 +35761,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34353,7 +35785,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -34367,12 +35823,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CBCE4-059F-40F4-9C88-FEDFAF8B762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21DA317-D1D2-44C8-AC3B-DA29AA414739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3345" windowWidth="21600" windowHeight="11385" tabRatio="820" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="9030" tabRatio="820" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="R21b_v5p0" sheetId="33" r:id="rId16"/>
     <sheet name="R22a_v5p0" sheetId="35" r:id="rId17"/>
     <sheet name="R22b_v5p0" sheetId="36" r:id="rId18"/>
+    <sheet name="R23a_v5p0" sheetId="37" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="212">
   <si>
     <t>#</t>
   </si>
@@ -678,6 +679,12 @@
   <si>
     <t>9.13.0.2049777 (R2022b)</t>
   </si>
+  <si>
+    <t>9.14.0.2206163 (R2023a)</t>
+  </si>
+  <si>
+    <t>14-Mar-2023 13:22:12</t>
+  </si>
 </sst>
 </file>
 
@@ -18857,7 +18864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC0C69C-EBEE-4001-BB79-5B55597B54C2}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -20777,6 +20784,1963 @@
       </c>
       <c r="E56" s="12">
         <v>7.5309999999999997</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88831653-7C18-419F-B939-710F57AF80B6}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2398</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2398</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2398</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.159</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2398</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>669</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>935</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>718</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>298</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>317</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>397</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3693</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.881</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.657</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4980</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5773</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2041</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2589</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2965</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>619</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>569</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="H9" s="3">
+        <v>665</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>625</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>210</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>213</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>222</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9430</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18939</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.1580000000000004</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11385</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.222</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20832</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6.0650000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.439</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>721</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>858</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>779</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>943</v>
+      </c>
+      <c r="K15" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1402</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1420</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.114</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1478</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5471</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6809</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.157</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5954</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6359</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>283</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>314</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>308</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>340</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3484</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3674</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3542</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3822</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7113</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7088</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H20" s="3">
+        <v>98562</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9.1609999999999996</v>
+      </c>
+      <c r="J20" s="3">
+        <v>99408</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9.9030000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3595</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4516</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3935</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4328</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1698</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.355</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1698</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1698</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.081</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1698</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.1070000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3248</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3139</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3708</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.258</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3484</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>252</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F24" s="3">
+        <v>252</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>252</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>252</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4702</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5141</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4545</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5147</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3.6080000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>14079</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>16297</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="H26" s="3">
+        <v>22680</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19378</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7.5510000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3938</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3538</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4199</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.7549999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>848</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>792</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="J29" s="3">
+        <v>892</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="12">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12217</v>
+      </c>
+      <c r="G30" s="3">
+        <v>17.513999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="3">
+        <v>14.109</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13505</v>
+      </c>
+      <c r="K30" s="3">
+        <v>22.677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>878</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F31" s="3">
+        <v>917</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H31" s="3">
+        <v>868</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>950</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1.363</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5466</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.319</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6265</v>
+      </c>
+      <c r="K32" s="3">
+        <v>8.7210000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2684</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4063</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.034</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3055</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4462</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>433</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="F34" s="3">
+        <v>770</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="H34" s="3">
+        <v>499</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J34" s="3">
+        <v>883</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1674</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3215</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.093</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1752</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3173</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10291</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16038</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5.29</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10364</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2.431</v>
+      </c>
+      <c r="J36" s="3">
+        <v>16313</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5.5880000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6572</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1.048</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10944</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6625</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="J37" s="3">
+        <v>11022</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.1949999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7506</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6756</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.9410000000000001</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7842</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4918</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4462</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4991</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9101</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6652</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10196</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4.8940000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8343</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7078</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8848</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3.7109999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="12">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9068</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8851</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.109</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9392</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.2989999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1229</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.439</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1266</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1484</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7678</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3.399</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7053</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6.3650000000000002</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8314</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3.718</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7127</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6.7110000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4096</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1.556</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4265</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4256</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4365</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2.9209999999999998</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4365</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4365</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.609</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4365</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.6059999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5541</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9380</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5581</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9597</v>
+      </c>
+      <c r="K47" s="3">
+        <v>6.5670000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9020</v>
+      </c>
+      <c r="E48" s="12">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12">
+        <v>32.19</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8491</v>
+      </c>
+      <c r="E49" s="12">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15372</v>
+      </c>
+      <c r="E50" s="12">
+        <v>9.4269999999999996</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12">
+        <v>39.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11644</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7.42</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8987</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4.7569999999999997</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40.86</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11692</v>
+      </c>
+      <c r="E53" s="12">
+        <v>9.61</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.27</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11533</v>
+      </c>
+      <c r="E54" s="12">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.27</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12158</v>
+      </c>
+      <c r="E55" s="12">
+        <v>10.959</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.71</v>
+      </c>
+      <c r="D56" s="2">
+        <v>9118</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7.6660000000000004</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>8</v>
@@ -35557,6 +37521,57 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -35701,58 +37716,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -35761,13 +37731,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35785,31 +37765,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -35823,4 +37779,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C19125F-A037-459D-88E3-F424956744B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD648B5-888E-4054-85CF-1B43160F2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="3210" windowWidth="19230" windowHeight="10455" tabRatio="820" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="R23a_v5p0" sheetId="37" r:id="rId19"/>
     <sheet name="R23b_v5p0" sheetId="38" r:id="rId20"/>
     <sheet name="R24a_v5p0" sheetId="39" r:id="rId21"/>
+    <sheet name="R24b_v5p0" sheetId="40" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="216">
   <si>
     <t>#</t>
   </si>
@@ -696,6 +697,9 @@
   <si>
     <t>21-Mar-2024 07:48:48</t>
   </si>
+  <si>
+    <t>24.2.0.2712019 (R2024b)</t>
+  </si>
 </sst>
 </file>
 
@@ -26447,7 +26451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7183A56D-6074-458C-8812-7B1D3838B851}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -28367,6 +28371,1963 @@
       </c>
       <c r="E56" s="10">
         <v>2.9950000000000001</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC53E0F2-F8AD-4A8C-A248-BFD416B7C81D}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="18">
+        <v>45547.347453703704</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="G4" s="17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>743</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>781</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1045</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>491</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="F6" s="3">
+        <v>526</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>513</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>553</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4218</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4776</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5370</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6259</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.0720000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2347</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2825</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2579</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3090</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>775</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>528</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>854</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>541</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>220</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>225</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>235</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>235</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24447</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.7309999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>51846</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.8579999999999997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>26130</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>56055</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5.7140000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.216</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5535</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>821</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>938</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>864</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1012</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1450</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1516</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1501</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1562</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5901</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6071</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6216</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6507</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>293</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>323</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>317</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>345</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3564</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3636</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3609</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3751</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6943</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7054</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.755</v>
+      </c>
+      <c r="H20" s="3">
+        <v>164459</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7.5839999999999996</v>
+      </c>
+      <c r="J20" s="3">
+        <v>175142</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3444</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3602</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3940</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4310</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.968</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2720</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2793</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3463</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3610</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>147</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.107</v>
+      </c>
+      <c r="F24" s="3">
+        <v>147</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="H24" s="3">
+        <v>147</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>147</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4818</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5231</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.585</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4835</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5297</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13465</v>
+      </c>
+      <c r="E26" s="10">
+        <v>3.573</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13641</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19549</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5.82</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17458</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3938</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.837</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3538</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.456</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4199</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.126</v>
+      </c>
+      <c r="F29" s="3">
+        <v>848</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>792</v>
+      </c>
+      <c r="I29" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>892</v>
+      </c>
+      <c r="K29" s="3">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="10">
+        <v>8.83</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12217</v>
+      </c>
+      <c r="G30" s="3">
+        <v>14.351000000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="3">
+        <v>13.090999999999999</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13505</v>
+      </c>
+      <c r="K30" s="3">
+        <v>20.827000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>878</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.188</v>
+      </c>
+      <c r="F31" s="3">
+        <v>917</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H31" s="3">
+        <v>868</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="J31" s="3">
+        <v>950</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="10">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.996</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5466</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.119</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6265</v>
+      </c>
+      <c r="K32" s="3">
+        <v>7.1849999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2684</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.314</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4063</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3055</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.371</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4462</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>472</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.128</v>
+      </c>
+      <c r="F34" s="3">
+        <v>887</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H34" s="3">
+        <v>511</v>
+      </c>
+      <c r="I34" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>856</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="10">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1735</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3261</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1748</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3277</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="10">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10291</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16038</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10364</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="J36" s="3">
+        <v>16313</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4.0229999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="10">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6572</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10944</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6625</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J37" s="3">
+        <v>11022</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="10">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7506</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.718</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6756</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7842</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="10">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4918</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.439</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4462</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4991</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="10">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9101</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6652</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10196</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3.6880000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="10">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8343</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.734</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7078</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8848</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="10">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9068</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8851</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9392</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="10">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1396</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1498</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1417</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1473</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7678</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7053</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8314</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4.6849999999999996</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7127</v>
+      </c>
+      <c r="K44" s="3">
+        <v>7.782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="10">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4096</v>
+      </c>
+      <c r="E45" s="10">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4265</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.976</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4256</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="10">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="10">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6109</v>
+      </c>
+      <c r="E47" s="10">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9152</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4.8920000000000003</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6004</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9349</v>
+      </c>
+      <c r="K47" s="3">
+        <v>5.6539999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4718</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1.744</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4610</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7916</v>
+      </c>
+      <c r="E50" s="10">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5541</v>
+      </c>
+      <c r="E51" s="10">
+        <v>3.4609999999999999</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="10">
+        <v>34.64</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4821</v>
+      </c>
+      <c r="E52" s="10">
+        <v>2.464</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41.11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5858</v>
+      </c>
+      <c r="E53" s="10">
+        <v>4.843</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.28</v>
+      </c>
+      <c r="D54" s="2">
+        <v>6036</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3.7360000000000002</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.26</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6345</v>
+      </c>
+      <c r="E55" s="10">
+        <v>5.8209999999999997</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.73</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5172</v>
+      </c>
+      <c r="E56" s="10">
+        <v>4.516</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>8</v>
@@ -41435,26 +43396,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -41599,7 +43540,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -41645,39 +43601,12 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41695,10 +43624,42 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07114D79-96C5-443E-AAB8-EBD3F08587B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results_REF.xlsx
+++ b/Scripts_Data/CFL_Results_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD648B5-888E-4054-85CF-1B43160F2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4D30C-C1E6-478F-A3A0-D5722EC44EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3210" windowWidth="19230" windowHeight="10455" tabRatio="820" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="820" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R16b_v3p6" sheetId="17" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="R23b_v5p0" sheetId="38" r:id="rId20"/>
     <sheet name="R24a_v5p0" sheetId="39" r:id="rId21"/>
     <sheet name="R24b_v5p0" sheetId="40" r:id="rId22"/>
+    <sheet name="R25b_v5p0" sheetId="41" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="218">
   <si>
     <t>#</t>
   </si>
@@ -700,6 +701,12 @@
   <si>
     <t>24.2.0.2712019 (R2024b)</t>
   </si>
+  <si>
+    <t>25.2.0.3042426 (R2025b) Update 1</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 18:38:30</t>
+  </si>
 </sst>
 </file>
 
@@ -28408,11 +28415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC53E0F2-F8AD-4A8C-A248-BFD416B7C81D}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30328,6 +30335,1963 @@
       </c>
       <c r="E56" s="10">
         <v>4.516</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05BB914-D071-43F0-B80D-BEA0EEF8F915}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2872</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>743</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H5" s="3">
+        <v>781</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1045</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>491</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>526</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>513</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>553</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4218</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4776</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5370</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6259</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.0019999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2347</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2825</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2579</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3090</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>775</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>528</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>854</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="J9" s="3">
+        <v>541</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>220</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>225</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>235</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>235</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24447</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.476</v>
+      </c>
+      <c r="F11" s="3">
+        <v>51846</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.9009999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>26130</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J11" s="3">
+        <v>55776</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6.8029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1137</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>821</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>938</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>864</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1012</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1450</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1516</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1501</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1562</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5901</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6071</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6216</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6507</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>293</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>323</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>317</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>345</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3564</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3636</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.373</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3609</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.224</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3751</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6943</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7054</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="H20" s="3">
+        <v>164459</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="J20" s="3">
+        <v>175049</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9.1059999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3444</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3602</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3940</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4310</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.968</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.1619999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2720</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2783</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3463</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3610</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>147</v>
+      </c>
+      <c r="E24" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>147</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>147</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>147</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4818</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5231</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.794</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4835</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5297</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13465</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13641</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19549</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17458</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4.8010000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.036</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3938</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3538</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.466</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4199</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>941</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="H28" s="3">
+        <v>967</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>848</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H29" s="3">
+        <v>792</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J29" s="3">
+        <v>892</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="10">
+        <v>24.03</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12217</v>
+      </c>
+      <c r="G30" s="3">
+        <v>48.481999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11929</v>
+      </c>
+      <c r="I30" s="3">
+        <v>33.524000000000001</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13505</v>
+      </c>
+      <c r="K30" s="3">
+        <v>18.594999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>878</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <v>917</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="H31" s="3">
+        <v>868</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="J31" s="3">
+        <v>950</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="10">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5466</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2513</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.151</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6265</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6.9039999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2684</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4063</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3055</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4462</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>472</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F34" s="3">
+        <v>887</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H34" s="3">
+        <v>511</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="J34" s="3">
+        <v>856</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="10">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1735</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3261</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1748</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3277</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="10">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10291</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16038</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10364</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="J36" s="3">
+        <v>16313</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3.5059999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="10">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6519</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1.077</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10965</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6644</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10952</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="10">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4176</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4663</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.079</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4245</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J38" s="3">
+        <v>4707</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="10">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2520</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3058</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2633</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.247</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3070</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="10">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4113</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1.577</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4559</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.377</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4237</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="J40" s="3">
+        <v>4617</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="10">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4597</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1.488</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4472</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.048</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4746</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4629</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="10">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6021</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6493</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6384</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6783</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="10">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1396</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1498</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1417</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1473</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7678</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7053</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8314</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7127</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4.4690000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="10">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4096</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4265</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.056</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4256</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="10">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="E46" s="10">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4720</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="10">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6109</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9152</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5.452</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6004</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9349</v>
+      </c>
+      <c r="K47" s="3">
+        <v>6.6769999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10">
+        <v>33.72</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4718</v>
+      </c>
+      <c r="E48" s="10">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4610</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10">
+        <v>59.18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7916</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3.4790000000000001</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5541</v>
+      </c>
+      <c r="E51" s="10">
+        <v>2.823</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="10">
+        <v>34.64</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4821</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41.11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5858</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3.859</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41.28</v>
+      </c>
+      <c r="D54" s="2">
+        <v>6036</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3.141</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45.26</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6345</v>
+      </c>
+      <c r="E55" s="10">
+        <v>4.5090000000000003</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27.73</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5172</v>
+      </c>
+      <c r="E56" s="10">
+        <v>3.6760000000000002</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>8</v>
@@ -43396,6 +45360,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -43540,22 +45524,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -43601,25 +45570,10 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43641,25 +45595,35 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CAB08D-0D2F-4FAA-AD38-9A4550C5EE6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FABBCA-025F-4928-B04C-BF4AD355139D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9F9B4-63C4-4A63-ABAD-3E68140B52AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE19BB6F-0BDA-4FED-9C87-C1B27317A152}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>